--- a/Version 1/Negative-Payoff/Experiments/Part1-Uniform-MajorMinor/document-popularity/Uniform results/Workbook.xlsx
+++ b/Version 1/Negative-Payoff/Experiments/Part1-Uniform-MajorMinor/document-popularity/Uniform results/Workbook.xlsx
@@ -4,22 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="80" windowWidth="34460" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="1420" yWindow="2040" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_01_20_23.409_PM_26_Sep_2016" localSheetId="0">Sheet1!$A$1:$B$81</definedName>
-    <definedName name="_01_21_01.893_PM_26_Sep_2016" localSheetId="0">Sheet1!$D$1:$E$81</definedName>
-    <definedName name="_01_21_40.394_PM_26_Sep_2016" localSheetId="0">Sheet1!$G$1:$H$81</definedName>
-    <definedName name="_01_22_15.780_PM_26_Sep_2016" localSheetId="0">Sheet1!$J$1:$K$81</definedName>
-    <definedName name="_01_23_43.168_PM_26_Sep_2016" localSheetId="0">Sheet1!$M$1:$N$81</definedName>
-    <definedName name="_01_24_16.739_PM_26_Sep_2016" localSheetId="0">Sheet1!$P$1:$Q$81</definedName>
-    <definedName name="_01_24_49.940_PM_26_Sep_2016" localSheetId="0">Sheet1!$S$1:$T$81</definedName>
-    <definedName name="_01_25_27.683_PM_26_Sep_2016" localSheetId="0">Sheet1!$V$1:$W$81</definedName>
-    <definedName name="_01_26_02.441_PM_26_Sep_2016" localSheetId="0">Sheet1!$Y$1:$Z$81</definedName>
-    <definedName name="_01_39_08.266_PM_26_Sep_2016" localSheetId="0">Sheet1!$AB$1:$AC$81</definedName>
+    <definedName name="_01_20_23.409_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_01_21_01.893_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_01_21_40.394_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_01_22_15.780_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_01_23_43.168_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_01_24_16.739_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_01_24_49.940_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_01_25_27.683_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_01_26_02.441_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_01_39_08.266_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="Uniform_Results_100" localSheetId="0">Sheet1!$A$1:$B$82</definedName>
+    <definedName name="Uniform_Results_1000" localSheetId="0">Sheet1!$AB$1:$AC$82</definedName>
+    <definedName name="Uniform_Results_200" localSheetId="0">Sheet1!$D$1:$E$82</definedName>
+    <definedName name="Uniform_Results_300" localSheetId="0">Sheet1!$G$1:$H$82</definedName>
+    <definedName name="Uniform_Results_400" localSheetId="0">Sheet1!$J$1:$K$82</definedName>
+    <definedName name="Uniform_Results_500" localSheetId="0">Sheet1!$M$1:$N$82</definedName>
+    <definedName name="Uniform_Results_600" localSheetId="0">Sheet1!$P$1:$Q$82</definedName>
+    <definedName name="Uniform_Results_700" localSheetId="0">Sheet1!$S$1:$T$82</definedName>
+    <definedName name="Uniform_Results_800" localSheetId="0">Sheet1!$V$1:$W$82</definedName>
+    <definedName name="Uniform_Results_900" localSheetId="0">Sheet1!$Y$1:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -32,72 +42,71 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="01/20/23.409 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:01/20/23.409 PM 26-Sep-2016.csv" comma="1">
-      <textFields count="2">
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" name="01/21/01.893 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:01/21/01.893 PM 26-Sep-2016.csv" comma="1">
+  <connection id="1" name="Uniform Results 100.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:Uniform Results 100.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="01/21/40.394 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:01/21/40.394 PM 26-Sep-2016.csv" comma="1">
+  <connection id="2" name="Uniform Results 1000.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:Uniform Results 1000.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="01/22/15.780 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:01/22/15.780 PM 26-Sep-2016.csv" comma="1">
+  <connection id="3" name="Uniform Results 200.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:Uniform Results 200.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="01/23/43.168 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:01/23/43.168 PM 26-Sep-2016.csv" comma="1">
+  <connection id="4" name="Uniform Results 300.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:Uniform Results 300.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="01/24/16.739 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:01/24/16.739 PM 26-Sep-2016.csv" comma="1">
+  <connection id="5" name="Uniform Results 400.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:Uniform Results 400.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="01/24/49.940 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:01/24/49.940 PM 26-Sep-2016.csv" comma="1">
+  <connection id="6" name="Uniform Results 500.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:Uniform Results 500.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="01/25/27.683 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:01/25/27.683 PM 26-Sep-2016.csv" comma="1">
+  <connection id="7" name="Uniform Results 600.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:Uniform Results 600.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="01/26/02.441 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:01/26/02.441 PM 26-Sep-2016.csv" comma="1">
+  <connection id="8" name="Uniform Results 700.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:Uniform Results 700.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="01/39/08.266 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:01/39/08.266 PM 26-Sep-2016.csv" comma="1">
+  <connection id="9" name="Uniform Results 800.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:Uniform Results 800.csv" comma="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="Uniform Results 900.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:Uniform results:Uniform Results 900.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -107,36 +116,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
   <si>
-    <t>Run 1</t>
+    <t xml:space="preserve">Taste 1 </t>
   </si>
   <si>
-    <t>Run 2</t>
-  </si>
-  <si>
-    <t>Run 3</t>
-  </si>
-  <si>
-    <t>Run 4</t>
-  </si>
-  <si>
-    <t>Run 5</t>
-  </si>
-  <si>
-    <t>Run 6</t>
-  </si>
-  <si>
-    <t>Run 7</t>
-  </si>
-  <si>
-    <t>Run 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run 9 </t>
-  </si>
-  <si>
-    <t>Run 10</t>
+    <t xml:space="preserve"> Taste 0</t>
   </si>
 </sst>
 </file>
@@ -184,43 +169,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="01/39/08.266 PM 26-Sep-2016" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="01/20/23.409 PM 26-Sep-2016" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="01/26/02.441 PM 26-Sep-2016" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 900" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="01/25/27.683 PM 26-Sep-2016" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="01/24/49.940 PM 26-Sep-2016" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="01/24/16.739 PM 26-Sep-2016" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="01/23/43.168 PM 26-Sep-2016" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="01/22/15.780 PM 26-Sep-2016" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 400" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="01/21/40.394 PM 26-Sep-2016" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="01/21/01.893 PM 26-Sep-2016" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Uniform Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC81"/>
+  <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -556,5008 +541,5068 @@
     <col min="1" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>200</v>
+      </c>
+      <c r="G1">
+        <v>300</v>
+      </c>
+      <c r="J1">
+        <v>400</v>
+      </c>
+      <c r="M1">
+        <v>500</v>
+      </c>
+      <c r="P1">
+        <v>600</v>
+      </c>
+      <c r="S1">
+        <v>700</v>
+      </c>
+      <c r="V1">
+        <v>800</v>
+      </c>
+      <c r="Y1">
+        <v>900</v>
+      </c>
+      <c r="AB1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2">
-        <v>7.43333333333333</v>
-      </c>
-      <c r="B2">
-        <v>-2.5</v>
-      </c>
-      <c r="D2">
-        <v>1.36666666666666</v>
-      </c>
-      <c r="E2">
-        <v>3.43333333333333</v>
-      </c>
-      <c r="G2">
-        <v>3.5</v>
-      </c>
-      <c r="H2">
-        <v>1.5</v>
-      </c>
-      <c r="J2">
-        <v>5.1666666666666599</v>
-      </c>
-      <c r="K2">
-        <v>-0.5</v>
-      </c>
-      <c r="M2">
-        <v>7.3</v>
-      </c>
-      <c r="N2">
-        <v>-2.5</v>
-      </c>
-      <c r="P2">
-        <v>6.9666666666666597</v>
-      </c>
-      <c r="Q2">
-        <v>-2.5</v>
-      </c>
-      <c r="S2">
-        <v>7.3</v>
-      </c>
-      <c r="T2">
-        <v>-2.5</v>
-      </c>
-      <c r="V2">
-        <v>7.5</v>
-      </c>
-      <c r="W2">
-        <v>-2.5</v>
-      </c>
-      <c r="Y2">
-        <v>7.3</v>
-      </c>
-      <c r="Z2">
-        <v>-2.5</v>
-      </c>
-      <c r="AB2">
-        <v>1.43333333333333</v>
-      </c>
-      <c r="AC2">
-        <v>3.36666666666666</v>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3">
+        <v>5.43333333333333</v>
+      </c>
+      <c r="B3">
+        <v>-0.5</v>
+      </c>
+      <c r="D3">
+        <v>5.3</v>
+      </c>
+      <c r="E3">
+        <v>-0.76666666666666605</v>
+      </c>
+      <c r="G3">
+        <v>3.43333333333333</v>
+      </c>
+      <c r="H3">
+        <v>1.5</v>
+      </c>
+      <c r="J3">
+        <v>1.36666666666666</v>
+      </c>
+      <c r="K3">
+        <v>3.36666666666666</v>
+      </c>
+      <c r="M3">
+        <v>1.5</v>
+      </c>
+      <c r="N3">
+        <v>3.2333333333333298</v>
+      </c>
+      <c r="P3">
+        <v>3.2333333333333298</v>
+      </c>
+      <c r="Q3">
+        <v>1.5</v>
+      </c>
+      <c r="S3">
+        <v>5.5</v>
+      </c>
+      <c r="T3">
+        <v>-0.5</v>
+      </c>
+      <c r="V3">
         <v>5.2333333333333298</v>
       </c>
-      <c r="B3">
-        <v>4.1666666666666599</v>
-      </c>
-      <c r="D3">
-        <v>7.8</v>
-      </c>
-      <c r="E3">
-        <v>2.6666666666666599</v>
-      </c>
-      <c r="G3">
-        <v>11.066666666666601</v>
-      </c>
-      <c r="H3">
-        <v>-0.66666666666666596</v>
-      </c>
-      <c r="J3">
-        <v>11.966666666666599</v>
-      </c>
-      <c r="K3">
-        <v>-2.5666666666666602</v>
-      </c>
-      <c r="M3">
-        <v>6.85</v>
-      </c>
-      <c r="N3">
-        <v>3.0166666666666599</v>
-      </c>
-      <c r="P3">
-        <v>5.3833333333333302</v>
-      </c>
-      <c r="Q3">
-        <v>5.55</v>
-      </c>
-      <c r="S3">
-        <v>8.7833333333333297</v>
-      </c>
-      <c r="T3">
-        <v>-0.05</v>
-      </c>
-      <c r="V3">
-        <v>8.86666666666666</v>
-      </c>
       <c r="W3">
-        <v>0.8</v>
+        <v>-0.56666666666666599</v>
       </c>
       <c r="Y3">
-        <v>9.75</v>
+        <v>1.5</v>
       </c>
       <c r="Z3">
-        <v>-0.28333333333333299</v>
+        <v>3.3</v>
       </c>
       <c r="AB3">
-        <v>4.8333333333333304</v>
+        <v>1.43333333333333</v>
       </c>
       <c r="AC3">
-        <v>5.0333333333333297</v>
+        <v>3.36666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4">
-        <v>4</v>
+        <v>8.4166666666666607</v>
       </c>
       <c r="B4">
-        <v>9.4</v>
+        <v>1.38333333333333</v>
       </c>
       <c r="D4">
-        <v>15.1166666666666</v>
+        <v>8.9833333333333307</v>
       </c>
       <c r="E4">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="G4">
-        <v>18.566666666666599</v>
+        <v>7.9833333333333298</v>
       </c>
       <c r="H4">
-        <v>-2.7666666666666599</v>
+        <v>2.2833333333333301</v>
       </c>
       <c r="J4">
-        <v>16.649999999999999</v>
+        <v>1.31666666666666</v>
       </c>
       <c r="K4">
-        <v>-3.7166666666666601</v>
+        <v>7.4166666666666599</v>
       </c>
       <c r="M4">
-        <v>5.18333333333333</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="N4">
-        <v>8.8166666666666593</v>
+        <v>8.8833333333333293</v>
       </c>
       <c r="P4">
-        <v>2.8</v>
+        <v>5.7666666666666604</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>4.43333333333333</v>
       </c>
       <c r="S4">
-        <v>10.216666666666599</v>
+        <v>9.86666666666666</v>
       </c>
       <c r="T4">
-        <v>4.3833333333333302</v>
+        <v>-0.2</v>
       </c>
       <c r="V4">
-        <v>11.283333333333299</v>
+        <v>7</v>
       </c>
       <c r="W4">
-        <v>2.5833333333333299</v>
+        <v>3.7333333333333298</v>
       </c>
       <c r="Y4">
-        <v>11.3</v>
+        <v>6.6666666666666599</v>
       </c>
       <c r="Z4">
-        <v>2.43333333333333</v>
+        <v>3.86666666666666</v>
       </c>
       <c r="AB4">
-        <v>5.86666666666666</v>
+        <v>1.2333333333333301</v>
       </c>
       <c r="AC4">
-        <v>8.6666666666666607</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5">
-        <v>4.95</v>
+        <v>9.3833333333333293</v>
       </c>
       <c r="B5">
-        <v>12.5833333333333</v>
+        <v>4.2833333333333297</v>
       </c>
       <c r="D5">
-        <v>21.15</v>
+        <v>14.8666666666666</v>
       </c>
       <c r="E5">
-        <v>-1.55</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="G5">
-        <v>25.016666666666602</v>
+        <v>12.983333333333301</v>
       </c>
       <c r="H5">
-        <v>-5.35</v>
+        <v>1.2833333333333301</v>
       </c>
       <c r="J5">
-        <v>20.7</v>
+        <v>2.4</v>
       </c>
       <c r="K5">
-        <v>-2.5</v>
+        <v>11.3333333333333</v>
       </c>
       <c r="M5">
-        <v>4.2</v>
+        <v>3.9666666666666601</v>
       </c>
       <c r="N5">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="P5">
-        <v>1.4166666666666601</v>
+        <v>9.9</v>
       </c>
       <c r="Q5">
-        <v>14.1166666666666</v>
+        <v>5.2333333333333298</v>
       </c>
       <c r="S5">
-        <v>12.2666666666666</v>
+        <v>12.1</v>
       </c>
       <c r="T5">
-        <v>6.6</v>
+        <v>2.43333333333333</v>
       </c>
       <c r="V5">
-        <v>17.266666666666602</v>
+        <v>12.85</v>
       </c>
       <c r="W5">
-        <v>2.7333333333333298</v>
+        <v>4.0833333333333304</v>
       </c>
       <c r="Y5">
-        <v>12.483333333333301</v>
+        <v>13.6166666666666</v>
       </c>
       <c r="Z5">
-        <v>5.45</v>
+        <v>2.9166666666666599</v>
       </c>
       <c r="AB5">
-        <v>7.4833333333333298</v>
+        <v>4.9166666666666599</v>
       </c>
       <c r="AC5">
-        <v>10.383333333333301</v>
+        <v>10.283333333333299</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6">
-        <v>7.18333333333333</v>
+        <v>10.55</v>
       </c>
       <c r="B6">
-        <v>16.149999999999999</v>
+        <v>6.9833333333333298</v>
       </c>
       <c r="D6">
-        <v>26.1166666666666</v>
+        <v>19.733333333333299</v>
       </c>
       <c r="E6">
-        <v>-3.5833333333333299</v>
+        <v>-0.46666666666666601</v>
       </c>
       <c r="G6">
-        <v>32.1666666666666</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>-7.5</v>
+        <v>1.5333333333333301</v>
       </c>
       <c r="J6">
-        <v>23.533333333333299</v>
+        <v>2.6333333333333302</v>
       </c>
       <c r="K6">
-        <v>6.6666666666666596E-2</v>
+        <v>16.3</v>
       </c>
       <c r="M6">
-        <v>2.4166666666666599</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N6">
-        <v>21.1166666666666</v>
+        <v>11.1</v>
       </c>
       <c r="P6">
-        <v>1.2333333333333301</v>
+        <v>16.9166666666666</v>
       </c>
       <c r="Q6">
-        <v>19.633333333333301</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="S6">
-        <v>14.75</v>
+        <v>12.3</v>
       </c>
       <c r="T6">
-        <v>9.25</v>
+        <v>6.7666666666666604</v>
       </c>
       <c r="V6">
-        <v>22.683333333333302</v>
+        <v>18.266666666666602</v>
       </c>
       <c r="W6">
-        <v>1.7166666666666599</v>
+        <v>2.93333333333333</v>
       </c>
       <c r="Y6">
-        <v>14.066666666666601</v>
+        <v>19.183333333333302</v>
       </c>
       <c r="Z6">
-        <v>9.86666666666666</v>
+        <v>1.61666666666666</v>
       </c>
       <c r="AB6">
-        <v>9.9166666666666607</v>
+        <v>7.9166666666666599</v>
       </c>
       <c r="AC6">
-        <v>12.15</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7">
-        <v>10.0833333333333</v>
+        <v>13.6</v>
       </c>
       <c r="B7">
-        <v>17.25</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D7">
-        <v>31.95</v>
+        <v>22.533333333333299</v>
       </c>
       <c r="E7">
-        <v>-3.8166666666666602</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="G7">
-        <v>38.783333333333303</v>
+        <v>20.066666666666599</v>
       </c>
       <c r="H7">
-        <v>-8.7833333333333297</v>
+        <v>3.6666666666666599</v>
       </c>
       <c r="J7">
-        <v>25.233333333333299</v>
+        <v>2.9833333333333298</v>
       </c>
       <c r="K7">
-        <v>2.9666666666666601</v>
+        <v>21.35</v>
       </c>
       <c r="M7">
-        <v>1.36666666666666</v>
+        <v>13.316666666666601</v>
       </c>
       <c r="N7">
-        <v>27.3666666666666</v>
+        <v>10.35</v>
       </c>
       <c r="P7">
-        <v>2.4</v>
+        <v>21.9166666666666</v>
       </c>
       <c r="Q7">
-        <v>23.266666666666602</v>
+        <v>3.4166666666666599</v>
       </c>
       <c r="S7">
-        <v>17.350000000000001</v>
+        <v>11.9166666666666</v>
       </c>
       <c r="T7">
-        <v>9.65</v>
+        <v>11.6166666666666</v>
       </c>
       <c r="V7">
-        <v>27.133333333333301</v>
+        <v>22.883333333333301</v>
       </c>
       <c r="W7">
-        <v>1.4</v>
+        <v>1.5166666666666599</v>
       </c>
       <c r="Y7">
-        <v>16.283333333333299</v>
+        <v>25.25</v>
       </c>
       <c r="Z7">
-        <v>12.1833333333333</v>
+        <v>0.81666666666666599</v>
       </c>
       <c r="AB7">
-        <v>13.233333333333301</v>
+        <v>11.5833333333333</v>
       </c>
       <c r="AC7">
-        <v>15.3</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8">
-        <v>13.3333333333333</v>
+        <v>17.516666666666602</v>
       </c>
       <c r="B8">
-        <v>18.733333333333299</v>
+        <v>10.0833333333333</v>
       </c>
       <c r="D8">
-        <v>36.6</v>
+        <v>25.466666666666601</v>
       </c>
       <c r="E8">
-        <v>-3.93333333333333</v>
+        <v>3.2666666666666599</v>
       </c>
       <c r="G8">
-        <v>43.233333333333299</v>
+        <v>22.133333333333301</v>
       </c>
       <c r="H8">
-        <v>-9.6333333333333293</v>
+        <v>8.6</v>
       </c>
       <c r="J8">
-        <v>25.283333333333299</v>
+        <v>3.8166666666666602</v>
       </c>
       <c r="K8">
-        <v>6.7833333333333297</v>
+        <v>24.9166666666666</v>
       </c>
       <c r="M8">
-        <v>0.16666666666666599</v>
+        <v>20.5833333333333</v>
       </c>
       <c r="N8">
-        <v>32.8333333333333</v>
+        <v>10.216666666666599</v>
       </c>
       <c r="P8">
-        <v>6</v>
+        <v>25.466666666666601</v>
       </c>
       <c r="Q8">
-        <v>25.6</v>
+        <v>3.0666666666666602</v>
       </c>
       <c r="S8">
-        <v>19.899999999999999</v>
+        <v>12.7666666666666</v>
       </c>
       <c r="T8">
-        <v>12.9</v>
+        <v>14.966666666666599</v>
       </c>
       <c r="V8">
-        <v>32.15</v>
+        <v>27.3333333333333</v>
       </c>
       <c r="W8">
-        <v>3.11666666666666</v>
+        <v>2.3333333333333299</v>
       </c>
       <c r="Y8">
-        <v>18.850000000000001</v>
+        <v>27.75</v>
       </c>
       <c r="Z8">
-        <v>13.95</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="AB8">
-        <v>14.066666666666601</v>
+        <v>14.9166666666666</v>
       </c>
       <c r="AC8">
-        <v>17.6666666666666</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9">
-        <v>16.383333333333301</v>
+        <v>23.983333333333299</v>
       </c>
       <c r="B9">
-        <v>20.283333333333299</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="D9">
-        <v>39.799999999999997</v>
+        <v>27.783333333333299</v>
       </c>
       <c r="E9">
-        <v>-2.93333333333333</v>
+        <v>6.35</v>
       </c>
       <c r="G9">
-        <v>45.716666666666598</v>
+        <v>21.65</v>
       </c>
       <c r="H9">
-        <v>-6.25</v>
+        <v>12.4166666666666</v>
       </c>
       <c r="J9">
-        <v>24.8333333333333</v>
+        <v>4.7833333333333297</v>
       </c>
       <c r="K9">
-        <v>11.1</v>
+        <v>29.283333333333299</v>
       </c>
       <c r="M9">
-        <v>0.6</v>
+        <v>24.966666666666601</v>
       </c>
       <c r="N9">
-        <v>37.200000000000003</v>
+        <v>10.7</v>
       </c>
       <c r="P9">
-        <v>12.1</v>
+        <v>29.066666666666599</v>
       </c>
       <c r="Q9">
-        <v>25.966666666666601</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S9">
-        <v>21.883333333333301</v>
+        <v>13.533333333333299</v>
       </c>
       <c r="T9">
-        <v>15.983333333333301</v>
+        <v>19.8</v>
       </c>
       <c r="V9">
-        <v>33.716666666666598</v>
+        <v>29.85</v>
       </c>
       <c r="W9">
-        <v>4.75</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="Y9">
-        <v>24.433333333333302</v>
+        <v>33.1</v>
       </c>
       <c r="Z9">
-        <v>14.9</v>
+        <v>0.63333333333333297</v>
       </c>
       <c r="AB9">
-        <v>17.033333333333299</v>
+        <v>18.1166666666666</v>
       </c>
       <c r="AC9">
-        <v>20.3666666666666</v>
+        <v>13.283333333333299</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10">
-        <v>19.316666666666599</v>
+        <v>29.55</v>
       </c>
       <c r="B10">
-        <v>22.816666666666599</v>
+        <v>9.3166666666666593</v>
       </c>
       <c r="D10">
-        <v>41.716666666666598</v>
+        <v>30.733333333333299</v>
       </c>
       <c r="E10">
-        <v>-0.31666666666666599</v>
+        <v>8.86666666666666</v>
       </c>
       <c r="G10">
-        <v>46.366666666666603</v>
+        <v>23.733333333333299</v>
       </c>
       <c r="H10">
-        <v>-1.8333333333333299</v>
+        <v>14.8</v>
       </c>
       <c r="J10">
-        <v>24.15</v>
+        <v>6.5666666666666602</v>
       </c>
       <c r="K10">
-        <v>14.45</v>
+        <v>31.633333333333301</v>
       </c>
       <c r="M10">
-        <v>1.05</v>
+        <v>25.733333333333299</v>
       </c>
       <c r="N10">
-        <v>42.15</v>
+        <v>11.733333333333301</v>
       </c>
       <c r="P10">
-        <v>17.1166666666666</v>
+        <v>32.883333333333297</v>
       </c>
       <c r="Q10">
-        <v>26.283333333333299</v>
+        <v>5.9166666666666599</v>
       </c>
       <c r="S10">
-        <v>22.6</v>
+        <v>14.4333333333333</v>
       </c>
       <c r="T10">
-        <v>20.733333333333299</v>
+        <v>23.3</v>
       </c>
       <c r="V10">
-        <v>35.266666666666602</v>
+        <v>32.316666666666599</v>
       </c>
       <c r="W10">
-        <v>8.7333333333333307</v>
+        <v>6.2166666666666597</v>
       </c>
       <c r="Y10">
-        <v>28.8</v>
+        <v>36.75</v>
       </c>
       <c r="Z10">
-        <v>13.9333333333333</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="AB10">
-        <v>20.399999999999999</v>
+        <v>21.933333333333302</v>
       </c>
       <c r="AC10">
-        <v>22.066666666666599</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11">
-        <v>21.233333333333299</v>
+        <v>34.883333333333297</v>
       </c>
       <c r="B11">
-        <v>25.766666666666602</v>
+        <v>8.18333333333333</v>
       </c>
       <c r="D11">
-        <v>43.216666666666598</v>
+        <v>33.866666666666603</v>
       </c>
       <c r="E11">
-        <v>1.7833333333333301</v>
+        <v>10.133333333333301</v>
       </c>
       <c r="G11">
-        <v>46.183333333333302</v>
+        <v>25.55</v>
       </c>
       <c r="H11">
-        <v>3.35</v>
+        <v>16.1166666666666</v>
       </c>
       <c r="J11">
-        <v>24.6</v>
+        <v>8.11666666666666</v>
       </c>
       <c r="K11">
-        <v>19.2</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="M11">
-        <v>2.7333333333333298</v>
+        <v>28.016666666666602</v>
       </c>
       <c r="N11">
-        <v>44.2</v>
+        <v>14.1166666666666</v>
       </c>
       <c r="P11">
-        <v>21.883333333333301</v>
+        <v>32.4</v>
       </c>
       <c r="Q11">
-        <v>27.783333333333299</v>
+        <v>9</v>
       </c>
       <c r="S11">
-        <v>22.783333333333299</v>
+        <v>16.45</v>
       </c>
       <c r="T11">
-        <v>23.4166666666666</v>
+        <v>26.0833333333333</v>
       </c>
       <c r="V11">
-        <v>35.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="W11">
-        <v>11.966666666666599</v>
+        <v>9.5</v>
       </c>
       <c r="Y11">
-        <v>35.549999999999997</v>
+        <v>41.716666666666598</v>
       </c>
       <c r="Z11">
-        <v>12.316666666666601</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AB11">
-        <v>23.1166666666666</v>
+        <v>24.316666666666599</v>
       </c>
       <c r="AC11">
-        <v>22.95</v>
+        <v>12.483333333333301</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12">
-        <v>23.1</v>
+        <v>41.433333333333302</v>
       </c>
       <c r="B12">
-        <v>28.1666666666666</v>
+        <v>7.43333333333333</v>
       </c>
       <c r="D12">
-        <v>46.85</v>
+        <v>35.966666666666598</v>
       </c>
       <c r="E12">
-        <v>4.4833333333333298</v>
+        <v>11.233333333333301</v>
       </c>
       <c r="G12">
-        <v>45.716666666666598</v>
+        <v>28.533333333333299</v>
       </c>
       <c r="H12">
-        <v>8.9499999999999993</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="J12">
-        <v>27.75</v>
+        <v>11.733333333333301</v>
       </c>
       <c r="K12">
-        <v>21.716666666666601</v>
+        <v>35.133333333333297</v>
       </c>
       <c r="M12">
-        <v>5.4166666666666599</v>
+        <v>28.933333333333302</v>
       </c>
       <c r="N12">
-        <v>46.516666666666602</v>
+        <v>16.733333333333299</v>
       </c>
       <c r="P12">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q12">
-        <v>28.466666666666601</v>
+        <v>12.8</v>
       </c>
       <c r="S12">
-        <v>23.316666666666599</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="T12">
-        <v>29.0833333333333</v>
+        <v>27.85</v>
       </c>
       <c r="V12">
-        <v>37.033333333333303</v>
+        <v>34.4166666666666</v>
       </c>
       <c r="W12">
-        <v>15.4333333333333</v>
+        <v>13.316666666666601</v>
       </c>
       <c r="Y12">
-        <v>43.716666666666598</v>
+        <v>45.5833333333333</v>
       </c>
       <c r="Z12">
-        <v>10.283333333333299</v>
+        <v>1.0833333333333299</v>
       </c>
       <c r="AB12">
-        <v>26.95</v>
+        <v>29.35</v>
       </c>
       <c r="AC12">
-        <v>24.1166666666666</v>
+        <v>11.316666666666601</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13">
-        <v>24.516666666666602</v>
+        <v>47.233333333333299</v>
       </c>
       <c r="B13">
-        <v>30.683333333333302</v>
+        <v>5.7</v>
       </c>
       <c r="D13">
-        <v>48.85</v>
+        <v>41.566666666666599</v>
       </c>
       <c r="E13">
-        <v>7.0166666666666604</v>
+        <v>11.8333333333333</v>
       </c>
       <c r="G13">
-        <v>43.966666666666598</v>
+        <v>29.7</v>
       </c>
       <c r="H13">
-        <v>16.100000000000001</v>
+        <v>22.3666666666666</v>
       </c>
       <c r="J13">
-        <v>29.9</v>
+        <v>15.566666666666601</v>
       </c>
       <c r="K13">
-        <v>24.7</v>
+        <v>35.366666666666603</v>
       </c>
       <c r="M13">
-        <v>8.5500000000000007</v>
+        <v>30.966666666666601</v>
       </c>
       <c r="N13">
-        <v>49.25</v>
+        <v>19.7</v>
       </c>
       <c r="P13">
-        <v>34.783333333333303</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="Q13">
-        <v>26.75</v>
+        <v>17.3</v>
       </c>
       <c r="S13">
-        <v>23.783333333333299</v>
+        <v>26.15</v>
       </c>
       <c r="T13">
-        <v>34.216666666666598</v>
+        <v>27.5833333333333</v>
       </c>
       <c r="V13">
-        <v>39.616666666666603</v>
+        <v>35.266666666666602</v>
       </c>
       <c r="W13">
-        <v>19.983333333333299</v>
+        <v>16.6666666666666</v>
       </c>
       <c r="Y13">
-        <v>50.433333333333302</v>
+        <v>49.3333333333333</v>
       </c>
       <c r="Z13">
-        <v>8.6333333333333293</v>
+        <v>2.93333333333333</v>
       </c>
       <c r="AB13">
-        <v>32.5833333333333</v>
+        <v>35.816666666666599</v>
       </c>
       <c r="AC13">
-        <v>24.35</v>
+        <v>10.5166666666666</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14">
-        <v>26.4</v>
+        <v>51.9166666666666</v>
       </c>
       <c r="B14">
+        <v>5.4166666666666599</v>
+      </c>
+      <c r="D14">
+        <v>46.9</v>
+      </c>
+      <c r="E14">
+        <v>12.8333333333333</v>
+      </c>
+      <c r="G14">
+        <v>32.016666666666602</v>
+      </c>
+      <c r="H14">
+        <v>26.783333333333299</v>
+      </c>
+      <c r="J14">
+        <v>20.483333333333299</v>
+      </c>
+      <c r="K14">
+        <v>35.5833333333333</v>
+      </c>
+      <c r="M14">
         <v>33.133333333333297</v>
       </c>
-      <c r="D14">
-        <v>50.1666666666666</v>
-      </c>
-      <c r="E14">
-        <v>9.0333333333333297</v>
-      </c>
-      <c r="G14">
-        <v>42.566666666666599</v>
-      </c>
-      <c r="H14">
-        <v>21.1</v>
-      </c>
-      <c r="J14">
-        <v>33.183333333333302</v>
-      </c>
-      <c r="K14">
-        <v>27.016666666666602</v>
-      </c>
-      <c r="M14">
-        <v>11.6666666666666</v>
-      </c>
       <c r="N14">
-        <v>50.066666666666599</v>
+        <v>21.8</v>
       </c>
       <c r="P14">
-        <v>38.0833333333333</v>
+        <v>32.516666666666602</v>
       </c>
       <c r="Q14">
-        <v>25.316666666666599</v>
+        <v>21.283333333333299</v>
       </c>
       <c r="S14">
-        <v>25.383333333333301</v>
+        <v>31.05</v>
       </c>
       <c r="T14">
-        <v>37.35</v>
+        <v>27.283333333333299</v>
       </c>
       <c r="V14">
-        <v>38.566666666666599</v>
+        <v>36.183333333333302</v>
       </c>
       <c r="W14">
-        <v>22.766666666666602</v>
+        <v>19.95</v>
       </c>
       <c r="Y14">
-        <v>56.1</v>
+        <v>53.05</v>
       </c>
       <c r="Z14">
-        <v>7.2333333333333298</v>
+        <v>4.0833333333333304</v>
       </c>
       <c r="AB14">
-        <v>37.066666666666599</v>
+        <v>41.5</v>
       </c>
       <c r="AC14">
-        <v>25.933333333333302</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15">
-        <v>29.3666666666666</v>
+        <v>57.516666666666602</v>
       </c>
       <c r="B15">
-        <v>35.633333333333297</v>
+        <v>3.95</v>
       </c>
       <c r="D15">
-        <v>52.6666666666666</v>
+        <v>49.3</v>
       </c>
       <c r="E15">
-        <v>13.533333333333299</v>
+        <v>15.3</v>
       </c>
       <c r="G15">
-        <v>40.766666666666602</v>
+        <v>34.533333333333303</v>
       </c>
       <c r="H15">
-        <v>27.566666666666599</v>
+        <v>29.266666666666602</v>
       </c>
       <c r="J15">
-        <v>35.933333333333302</v>
+        <v>25.466666666666601</v>
       </c>
       <c r="K15">
-        <v>29.8666666666666</v>
+        <v>34.6</v>
       </c>
       <c r="M15">
-        <v>14.5</v>
+        <v>36.816666666666599</v>
       </c>
       <c r="N15">
-        <v>51.7</v>
+        <v>23.316666666666599</v>
       </c>
       <c r="P15">
-        <v>43.533333333333303</v>
+        <v>33.266666666666602</v>
       </c>
       <c r="Q15">
-        <v>24.266666666666602</v>
+        <v>24.3333333333333</v>
       </c>
       <c r="S15">
-        <v>27.316666666666599</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="T15">
-        <v>39.216666666666598</v>
+        <v>26.9166666666666</v>
       </c>
       <c r="V15">
-        <v>38.200000000000003</v>
+        <v>38.616666666666603</v>
       </c>
       <c r="W15">
-        <v>26.733333333333299</v>
+        <v>21.9166666666666</v>
       </c>
       <c r="Y15">
-        <v>60.6666666666666</v>
+        <v>55.766666666666602</v>
       </c>
       <c r="Z15">
-        <v>6.6666666666666599</v>
+        <v>5.3</v>
       </c>
       <c r="AB15">
-        <v>41.266666666666602</v>
+        <v>46.683333333333302</v>
       </c>
       <c r="AC15">
-        <v>26.066666666666599</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16">
-        <v>30.6</v>
+        <v>62.966666666666598</v>
       </c>
       <c r="B16">
-        <v>40.6</v>
+        <v>2.6333333333333302</v>
       </c>
       <c r="D16">
-        <v>53.216666666666598</v>
+        <v>51.8</v>
       </c>
       <c r="E16">
-        <v>17.850000000000001</v>
+        <v>17.2</v>
       </c>
       <c r="G16">
-        <v>39.200000000000003</v>
+        <v>37.0833333333333</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>30.85</v>
       </c>
       <c r="J16">
-        <v>38.8333333333333</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="K16">
-        <v>32.299999999999997</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="M16">
-        <v>18.783333333333299</v>
+        <v>40.383333333333297</v>
       </c>
       <c r="N16">
-        <v>52.283333333333303</v>
+        <v>24.883333333333301</v>
       </c>
       <c r="P16">
-        <v>46.983333333333299</v>
+        <v>36.116666666666603</v>
       </c>
       <c r="Q16">
-        <v>24.35</v>
+        <v>27.6166666666666</v>
       </c>
       <c r="S16">
-        <v>30.5833333333333</v>
+        <v>41.883333333333297</v>
       </c>
       <c r="T16">
-        <v>41.283333333333303</v>
+        <v>26.316666666666599</v>
       </c>
       <c r="V16">
-        <v>38.516666666666602</v>
+        <v>41.133333333333297</v>
       </c>
       <c r="W16">
-        <v>33.016666666666602</v>
+        <v>24.466666666666601</v>
       </c>
       <c r="Y16">
-        <v>65.05</v>
+        <v>59.4</v>
       </c>
       <c r="Z16">
-        <v>6.2833333333333297</v>
+        <v>6.3333333333333304</v>
       </c>
       <c r="AB16">
-        <v>45.1666666666666</v>
+        <v>50.6666666666666</v>
       </c>
       <c r="AC16">
-        <v>26.9</v>
+        <v>9.7333333333333307</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17">
-        <v>34.283333333333303</v>
+        <v>68.966666666666598</v>
       </c>
       <c r="B17">
-        <v>41.9166666666666</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D17">
-        <v>53.716666666666598</v>
+        <v>52.283333333333303</v>
       </c>
       <c r="E17">
-        <v>22.016666666666602</v>
+        <v>19.316666666666599</v>
       </c>
       <c r="G17">
-        <v>37.483333333333299</v>
+        <v>40</v>
       </c>
       <c r="H17">
-        <v>39.116666666666603</v>
+        <v>32.533333333333303</v>
       </c>
       <c r="J17">
-        <v>39.950000000000003</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>35.516666666666602</v>
+        <v>32.266666666666602</v>
       </c>
       <c r="M17">
-        <v>22.283333333333299</v>
+        <v>43</v>
       </c>
       <c r="N17">
-        <v>53.25</v>
+        <v>25.933333333333302</v>
       </c>
       <c r="P17">
-        <v>53.3333333333333</v>
+        <v>41.1</v>
       </c>
       <c r="Q17">
-        <v>24.8</v>
+        <v>29.033333333333299</v>
       </c>
       <c r="S17">
-        <v>34.6666666666666</v>
+        <v>44.3</v>
       </c>
       <c r="T17">
-        <v>42.6</v>
+        <v>24.9</v>
       </c>
       <c r="V17">
-        <v>37.983333333333299</v>
+        <v>44.316666666666599</v>
       </c>
       <c r="W17">
-        <v>37.816666666666599</v>
+        <v>26.55</v>
       </c>
       <c r="Y17">
-        <v>69.849999999999994</v>
+        <v>61.0833333333333</v>
       </c>
       <c r="Z17">
-        <v>5.8166666666666602</v>
+        <v>8.65</v>
       </c>
       <c r="AB17">
-        <v>48.2</v>
+        <v>52.883333333333297</v>
       </c>
       <c r="AC17">
-        <v>28.133333333333301</v>
+        <v>12.716666666666599</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18">
-        <v>36.85</v>
+        <v>75.2</v>
       </c>
       <c r="B18">
-        <v>42.616666666666603</v>
+        <v>1.2</v>
       </c>
       <c r="D18">
-        <v>55.75</v>
+        <v>51.15</v>
       </c>
       <c r="E18">
-        <v>26.05</v>
+        <v>22.183333333333302</v>
       </c>
       <c r="G18">
-        <v>36.799999999999997</v>
+        <v>41.716666666666598</v>
       </c>
       <c r="H18">
-        <v>43.133333333333297</v>
+        <v>34.216666666666598</v>
       </c>
       <c r="J18">
-        <v>41.05</v>
+        <v>44.516666666666602</v>
       </c>
       <c r="K18">
-        <v>38.616666666666603</v>
+        <v>30.35</v>
       </c>
       <c r="M18">
-        <v>25.6166666666666</v>
+        <v>45.733333333333299</v>
       </c>
       <c r="N18">
-        <v>54.116666666666603</v>
+        <v>27.6</v>
       </c>
       <c r="P18">
-        <v>57.816666666666599</v>
+        <v>46.183333333333302</v>
       </c>
       <c r="Q18">
-        <v>25.25</v>
+        <v>27.683333333333302</v>
       </c>
       <c r="S18">
-        <v>38.75</v>
+        <v>47.966666666666598</v>
       </c>
       <c r="T18">
-        <v>42.65</v>
+        <v>26.566666666666599</v>
       </c>
       <c r="V18">
-        <v>39.5</v>
+        <v>47.133333333333297</v>
       </c>
       <c r="W18">
-        <v>40.9</v>
+        <v>27.933333333333302</v>
       </c>
       <c r="Y18">
-        <v>73.533333333333303</v>
+        <v>63.016666666666602</v>
       </c>
       <c r="Z18">
-        <v>6.2666666666666604</v>
+        <v>11.383333333333301</v>
       </c>
       <c r="AB18">
-        <v>50.6</v>
+        <v>56.483333333333299</v>
       </c>
       <c r="AC18">
-        <v>27.466666666666601</v>
+        <v>14.783333333333299</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19">
-        <v>40.35</v>
+        <v>78.616666666666603</v>
       </c>
       <c r="B19">
-        <v>42.85</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="D19">
-        <v>57.6666666666666</v>
+        <v>50.133333333333297</v>
       </c>
       <c r="E19">
-        <v>30.6</v>
+        <v>26.8666666666666</v>
       </c>
       <c r="G19">
-        <v>37</v>
+        <v>43.85</v>
       </c>
       <c r="H19">
-        <v>48.866666666666603</v>
+        <v>37.283333333333303</v>
       </c>
       <c r="J19">
-        <v>42.733333333333299</v>
+        <v>51.65</v>
       </c>
       <c r="K19">
-        <v>41.4</v>
+        <v>28.683333333333302</v>
       </c>
       <c r="M19">
-        <v>30.6666666666666</v>
+        <v>49.9</v>
       </c>
       <c r="N19">
-        <v>54.6</v>
+        <v>29.3</v>
       </c>
       <c r="P19">
-        <v>61.483333333333299</v>
+        <v>52.316666666666599</v>
       </c>
       <c r="Q19">
-        <v>26.05</v>
+        <v>26.75</v>
       </c>
       <c r="S19">
-        <v>44.533333333333303</v>
+        <v>50.766666666666602</v>
       </c>
       <c r="T19">
-        <v>41.866666666666603</v>
+        <v>29.3</v>
       </c>
       <c r="V19">
-        <v>40.65</v>
+        <v>50.966666666666598</v>
       </c>
       <c r="W19">
-        <v>45.683333333333302</v>
+        <v>29.9</v>
       </c>
       <c r="Y19">
-        <v>78.266666666666595</v>
+        <v>64.7</v>
       </c>
       <c r="Z19">
-        <v>7.0666666666666602</v>
+        <v>14.3666666666666</v>
       </c>
       <c r="AB19">
-        <v>54.233333333333299</v>
+        <v>59.966666666666598</v>
       </c>
       <c r="AC19">
-        <v>29.033333333333299</v>
+        <v>16.1666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20">
-        <v>42.35</v>
+        <v>83.35</v>
       </c>
       <c r="B20">
-        <v>44.5833333333333</v>
+        <v>0.98333333333333295</v>
       </c>
       <c r="D20">
-        <v>58.533333333333303</v>
+        <v>50.35</v>
       </c>
       <c r="E20">
-        <v>33.933333333333302</v>
+        <v>31.45</v>
       </c>
       <c r="G20">
-        <v>38.133333333333297</v>
+        <v>44.733333333333299</v>
       </c>
       <c r="H20">
-        <v>53.266666666666602</v>
+        <v>41.266666666666602</v>
       </c>
       <c r="J20">
-        <v>45.266666666666602</v>
+        <v>58.9166666666666</v>
       </c>
       <c r="K20">
-        <v>43.3333333333333</v>
+        <v>27.016666666666602</v>
       </c>
       <c r="M20">
-        <v>36.766666666666602</v>
+        <v>53.4</v>
       </c>
       <c r="N20">
-        <v>54.566666666666599</v>
+        <v>29.933333333333302</v>
       </c>
       <c r="P20">
-        <v>63.783333333333303</v>
+        <v>59.266666666666602</v>
       </c>
       <c r="Q20">
-        <v>27.683333333333302</v>
+        <v>26.133333333333301</v>
       </c>
       <c r="S20">
-        <v>50.683333333333302</v>
+        <v>52.133333333333297</v>
       </c>
       <c r="T20">
-        <v>40.716666666666598</v>
+        <v>33.266666666666602</v>
       </c>
       <c r="V20">
-        <v>40.6</v>
+        <v>55.05</v>
       </c>
       <c r="W20">
-        <v>49.4</v>
+        <v>30.75</v>
       </c>
       <c r="Y20">
-        <v>82.5</v>
+        <v>64.55</v>
       </c>
       <c r="Z20">
-        <v>7.9</v>
+        <v>19.5833333333333</v>
       </c>
       <c r="AB20">
-        <v>57.1666666666666</v>
+        <v>63.4</v>
       </c>
       <c r="AC20">
-        <v>30.233333333333299</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21">
-        <v>45.133333333333297</v>
+        <v>87.633333333333297</v>
       </c>
       <c r="B21">
-        <v>45.8</v>
+        <v>2.7666666666666599</v>
       </c>
       <c r="D21">
-        <v>60.316666666666599</v>
+        <v>51.45</v>
       </c>
       <c r="E21">
-        <v>37.616666666666603</v>
+        <v>35.483333333333299</v>
       </c>
       <c r="G21">
-        <v>38.450000000000003</v>
+        <v>45.633333333333297</v>
       </c>
       <c r="H21">
-        <v>57.616666666666603</v>
+        <v>45.7</v>
       </c>
       <c r="J21">
-        <v>48.316666666666599</v>
+        <v>65.133333333333297</v>
       </c>
       <c r="K21">
-        <v>45.75</v>
+        <v>25.2</v>
       </c>
       <c r="M21">
-        <v>41.7</v>
+        <v>56.3333333333333</v>
       </c>
       <c r="N21">
-        <v>53.566666666666599</v>
+        <v>30.8666666666666</v>
       </c>
       <c r="P21">
-        <v>64.483333333333306</v>
+        <v>66.883333333333297</v>
       </c>
       <c r="Q21">
-        <v>32.450000000000003</v>
+        <v>25.25</v>
       </c>
       <c r="S21">
-        <v>58.016666666666602</v>
+        <v>52.683333333333302</v>
       </c>
       <c r="T21">
-        <v>38.65</v>
+        <v>37.516666666666602</v>
       </c>
       <c r="V21">
-        <v>40.616666666666603</v>
+        <v>58.966666666666598</v>
       </c>
       <c r="W21">
-        <v>53.116666666666603</v>
+        <v>31.233333333333299</v>
       </c>
       <c r="Y21">
-        <v>86.45</v>
+        <v>63.9166666666666</v>
       </c>
       <c r="Z21">
-        <v>8.68333333333333</v>
+        <v>25.55</v>
       </c>
       <c r="AB21">
-        <v>59.55</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="AC21">
-        <v>32.983333333333299</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22">
-        <v>48.016666666666602</v>
+        <v>90.183333333333294</v>
       </c>
       <c r="B22">
-        <v>47.05</v>
+        <v>5.35</v>
       </c>
       <c r="D22">
-        <v>62.25</v>
+        <v>52.7</v>
       </c>
       <c r="E22">
-        <v>39.0833333333333</v>
+        <v>38.9</v>
       </c>
       <c r="G22">
-        <v>39.883333333333297</v>
+        <v>48.25</v>
       </c>
       <c r="H22">
-        <v>60.65</v>
+        <v>48.483333333333299</v>
       </c>
       <c r="J22">
-        <v>52.6</v>
+        <v>71.8</v>
       </c>
       <c r="K22">
-        <v>46.133333333333297</v>
+        <v>24.066666666666599</v>
       </c>
       <c r="M22">
-        <v>47.816666666666599</v>
+        <v>58.8333333333333</v>
       </c>
       <c r="N22">
-        <v>52.25</v>
+        <v>32.633333333333297</v>
       </c>
       <c r="P22">
-        <v>65.366666666666603</v>
+        <v>74.116666666666603</v>
       </c>
       <c r="Q22">
-        <v>36.433333333333302</v>
+        <v>23.6166666666666</v>
       </c>
       <c r="S22">
-        <v>63.8</v>
+        <v>53</v>
       </c>
       <c r="T22">
-        <v>36.866666666666603</v>
+        <v>42.8</v>
       </c>
       <c r="V22">
-        <v>43.133333333333297</v>
+        <v>64.133333333333297</v>
       </c>
       <c r="W22">
-        <v>56.6</v>
+        <v>31.6666666666666</v>
       </c>
       <c r="Y22">
-        <v>89.5</v>
+        <v>62.933333333333302</v>
       </c>
       <c r="Z22">
-        <v>10.3666666666666</v>
+        <v>31.6666666666666</v>
       </c>
       <c r="AB22">
-        <v>61.016666666666602</v>
+        <v>68.2</v>
       </c>
       <c r="AC22">
-        <v>35.049999999999997</v>
+        <v>26.133333333333301</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23">
-        <v>50.066666666666599</v>
+        <v>92.2</v>
       </c>
       <c r="B23">
-        <v>48.866666666666603</v>
+        <v>8.4</v>
       </c>
       <c r="D23">
-        <v>67.066666666666606</v>
+        <v>54.15</v>
       </c>
       <c r="E23">
-        <v>39.533333333333303</v>
+        <v>42.5833333333333</v>
       </c>
       <c r="G23">
-        <v>43.016666666666602</v>
+        <v>49.616666666666603</v>
       </c>
       <c r="H23">
-        <v>63.516666666666602</v>
+        <v>51.516666666666602</v>
       </c>
       <c r="J23">
-        <v>57.25</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="K23">
-        <v>47.0833333333333</v>
+        <v>21.7</v>
       </c>
       <c r="M23">
-        <v>52.216666666666598</v>
+        <v>61.783333333333303</v>
       </c>
       <c r="N23">
-        <v>51.9166666666666</v>
+        <v>34.0833333333333</v>
       </c>
       <c r="P23">
-        <v>66.966666666666598</v>
+        <v>80.75</v>
       </c>
       <c r="Q23">
-        <v>39.433333333333302</v>
+        <v>22.05</v>
       </c>
       <c r="S23">
-        <v>68.900000000000006</v>
+        <v>54.0833333333333</v>
       </c>
       <c r="T23">
-        <v>34.5</v>
+        <v>46.65</v>
       </c>
       <c r="V23">
-        <v>45.266666666666602</v>
+        <v>67.0833333333333</v>
       </c>
       <c r="W23">
-        <v>60</v>
+        <v>31.983333333333299</v>
       </c>
       <c r="Y23">
-        <v>92.933333333333294</v>
+        <v>61.533333333333303</v>
       </c>
       <c r="Z23">
-        <v>11.733333333333301</v>
+        <v>38.133333333333297</v>
       </c>
       <c r="AB23">
-        <v>63.966666666666598</v>
+        <v>70.033333333333303</v>
       </c>
       <c r="AC23">
-        <v>36.1666666666666</v>
+        <v>27.566666666666599</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24">
-        <v>52.2</v>
+        <v>94.3</v>
       </c>
       <c r="B24">
-        <v>50.933333333333302</v>
+        <v>11.5</v>
       </c>
       <c r="D24">
-        <v>72.183333333333294</v>
+        <v>57.033333333333303</v>
       </c>
       <c r="E24">
-        <v>39.4166666666666</v>
+        <v>45.433333333333302</v>
       </c>
       <c r="G24">
-        <v>46.533333333333303</v>
+        <v>52.0833333333333</v>
       </c>
       <c r="H24">
-        <v>65.3333333333333</v>
+        <v>52.983333333333299</v>
       </c>
       <c r="J24">
-        <v>61.683333333333302</v>
+        <v>85.1</v>
       </c>
       <c r="K24">
-        <v>46.316666666666599</v>
+        <v>20.7</v>
       </c>
       <c r="M24">
-        <v>56.866666666666603</v>
+        <v>64.516666666666595</v>
       </c>
       <c r="N24">
-        <v>52</v>
+        <v>35.35</v>
       </c>
       <c r="P24">
-        <v>67.2</v>
+        <v>87.116666666666603</v>
       </c>
       <c r="Q24">
-        <v>43.066666666666599</v>
+        <v>20.016666666666602</v>
       </c>
       <c r="S24">
-        <v>73.5833333333333</v>
+        <v>55.066666666666599</v>
       </c>
       <c r="T24">
-        <v>33.216666666666598</v>
+        <v>49.6</v>
       </c>
       <c r="V24">
-        <v>49.316666666666599</v>
+        <v>69.3</v>
       </c>
       <c r="W24">
-        <v>61.616666666666603</v>
+        <v>33.8333333333333</v>
       </c>
       <c r="Y24">
-        <v>96.233333333333306</v>
+        <v>60.883333333333297</v>
       </c>
       <c r="Z24">
-        <v>14.5</v>
+        <v>44.183333333333302</v>
       </c>
       <c r="AB24">
-        <v>67.25</v>
+        <v>71.383333333333297</v>
       </c>
       <c r="AC24">
-        <v>38.35</v>
+        <v>30.216666666666601</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25">
-        <v>54.6</v>
+        <v>95.15</v>
       </c>
       <c r="B25">
-        <v>55.266666666666602</v>
+        <v>12.5833333333333</v>
       </c>
       <c r="D25">
-        <v>77.566666666666606</v>
+        <v>59.316666666666599</v>
       </c>
       <c r="E25">
-        <v>38.633333333333297</v>
+        <v>49.15</v>
       </c>
       <c r="G25">
-        <v>49.6666666666666</v>
+        <v>55.4166666666666</v>
       </c>
       <c r="H25">
-        <v>67.066666666666606</v>
+        <v>54.516666666666602</v>
       </c>
       <c r="J25">
-        <v>67.95</v>
+        <v>89.983333333333306</v>
       </c>
       <c r="K25">
-        <v>46.383333333333297</v>
+        <v>19.95</v>
       </c>
       <c r="M25">
-        <v>61.95</v>
+        <v>68.616666666666603</v>
       </c>
       <c r="N25">
-        <v>53.45</v>
+        <v>36.5833333333333</v>
       </c>
       <c r="P25">
-        <v>69.3333333333333</v>
+        <v>94.9</v>
       </c>
       <c r="Q25">
-        <v>45.533333333333303</v>
+        <v>18.8333333333333</v>
       </c>
       <c r="S25">
-        <v>80.25</v>
+        <v>57.783333333333303</v>
       </c>
       <c r="T25">
-        <v>31.95</v>
+        <v>53.35</v>
       </c>
       <c r="V25">
-        <v>52.2</v>
+        <v>71.283333333333303</v>
       </c>
       <c r="W25">
-        <v>63.466666666666598</v>
+        <v>37.65</v>
       </c>
       <c r="Y25">
-        <v>97.25</v>
+        <v>59.866666666666603</v>
       </c>
       <c r="Z25">
-        <v>16.283333333333299</v>
+        <v>49</v>
       </c>
       <c r="AB25">
-        <v>73.066666666666606</v>
+        <v>73.766666666666595</v>
       </c>
       <c r="AC25">
-        <v>39.266666666666602</v>
+        <v>33.233333333333299</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26">
-        <v>57.633333333333297</v>
+        <v>99.766666666666595</v>
       </c>
       <c r="B26">
-        <v>57.633333333333297</v>
+        <v>13.033333333333299</v>
       </c>
       <c r="D26">
-        <v>82.516666666666595</v>
+        <v>60.816666666666599</v>
       </c>
       <c r="E26">
-        <v>37.216666666666598</v>
+        <v>52.383333333333297</v>
       </c>
       <c r="G26">
-        <v>54.933333333333302</v>
+        <v>59.133333333333297</v>
       </c>
       <c r="H26">
-        <v>68.400000000000006</v>
+        <v>55.533333333333303</v>
       </c>
       <c r="J26">
-        <v>71.516666666666595</v>
+        <v>94.766666666666595</v>
       </c>
       <c r="K26">
-        <v>46.883333333333297</v>
+        <v>20.233333333333299</v>
       </c>
       <c r="M26">
-        <v>67.433333333333294</v>
+        <v>74.516666666666595</v>
       </c>
       <c r="N26">
-        <v>52.966666666666598</v>
+        <v>36.950000000000003</v>
       </c>
       <c r="P26">
-        <v>71.633333333333297</v>
+        <v>100.45</v>
       </c>
       <c r="Q26">
-        <v>47.5</v>
+        <v>17.216666666666601</v>
       </c>
       <c r="S26">
-        <v>87.016666666666595</v>
+        <v>60.216666666666598</v>
       </c>
       <c r="T26">
-        <v>31.183333333333302</v>
+        <v>55.183333333333302</v>
       </c>
       <c r="V26">
-        <v>57.433333333333302</v>
+        <v>72.25</v>
       </c>
       <c r="W26">
-        <v>63.3</v>
+        <v>41.55</v>
       </c>
       <c r="Y26">
-        <v>98.3333333333333</v>
+        <v>59.316666666666599</v>
       </c>
       <c r="Z26">
-        <v>21.2</v>
+        <v>54.616666666666603</v>
       </c>
       <c r="AB26">
-        <v>77.2</v>
+        <v>77.233333333333306</v>
       </c>
       <c r="AC26">
-        <v>40</v>
+        <v>35.566666666666599</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27">
-        <v>58.25</v>
+        <v>104.9</v>
       </c>
       <c r="B27">
-        <v>62.016666666666602</v>
+        <v>13.7</v>
       </c>
       <c r="D27">
-        <v>89.25</v>
+        <v>63.866666666666603</v>
       </c>
       <c r="E27">
-        <v>36.216666666666598</v>
+        <v>55.466666666666598</v>
       </c>
       <c r="G27">
-        <v>58.183333333333302</v>
+        <v>63.35</v>
       </c>
       <c r="H27">
-        <v>68.0833333333333</v>
+        <v>55.316666666666599</v>
       </c>
       <c r="J27">
-        <v>77.6666666666666</v>
+        <v>97.75</v>
       </c>
       <c r="K27">
-        <v>47</v>
+        <v>21.383333333333301</v>
       </c>
       <c r="M27">
-        <v>72.483333333333306</v>
+        <v>80.75</v>
       </c>
       <c r="N27">
-        <v>53.116666666666603</v>
+        <v>36.9166666666666</v>
       </c>
       <c r="P27">
-        <v>76.866666666666603</v>
+        <v>107.783333333333</v>
       </c>
       <c r="Q27">
-        <v>48.266666666666602</v>
+        <v>15.283333333333299</v>
       </c>
       <c r="S27">
-        <v>91.9166666666666</v>
+        <v>62.783333333333303</v>
       </c>
       <c r="T27">
-        <v>29.75</v>
+        <v>57.683333333333302</v>
       </c>
       <c r="V27">
-        <v>61.283333333333303</v>
+        <v>72.516666666666595</v>
       </c>
       <c r="W27">
-        <v>63.516666666666602</v>
+        <v>46.016666666666602</v>
       </c>
       <c r="Y27">
-        <v>99.25</v>
+        <v>59.616666666666603</v>
       </c>
       <c r="Z27">
-        <v>25.4166666666666</v>
+        <v>60.316666666666599</v>
       </c>
       <c r="AB27">
-        <v>80.95</v>
+        <v>79.066666666666606</v>
       </c>
       <c r="AC27">
-        <v>40.85</v>
+        <v>38.133333333333297</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28">
-        <v>59.366666666666603</v>
+        <v>108.2</v>
       </c>
       <c r="B28">
-        <v>66.966666666666598</v>
+        <v>15.3333333333333</v>
       </c>
       <c r="D28">
-        <v>95.366666666666603</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="E28">
-        <v>34.700000000000003</v>
+        <v>57</v>
       </c>
       <c r="G28">
-        <v>62.266666666666602</v>
+        <v>67.3333333333333</v>
       </c>
       <c r="H28">
-        <v>67.400000000000006</v>
+        <v>56.133333333333297</v>
       </c>
       <c r="J28">
-        <v>82.4166666666666</v>
+        <v>102.533333333333</v>
       </c>
       <c r="K28">
-        <v>46.45</v>
+        <v>23.2</v>
       </c>
       <c r="M28">
-        <v>76.400000000000006</v>
+        <v>86.45</v>
       </c>
       <c r="N28">
-        <v>53.866666666666603</v>
+        <v>35.616666666666603</v>
       </c>
       <c r="P28">
-        <v>80.616666666666603</v>
+        <v>115.283333333333</v>
       </c>
       <c r="Q28">
-        <v>50.316666666666599</v>
+        <v>13.983333333333301</v>
       </c>
       <c r="S28">
-        <v>96.5833333333333</v>
+        <v>64.6666666666666</v>
       </c>
       <c r="T28">
-        <v>29.483333333333299</v>
+        <v>59.866666666666603</v>
       </c>
       <c r="V28">
-        <v>65.599999999999994</v>
+        <v>73.45</v>
       </c>
       <c r="W28">
-        <v>64.066666666666606</v>
+        <v>49.616666666666603</v>
       </c>
       <c r="Y28">
-        <v>98.1</v>
+        <v>59.316666666666599</v>
       </c>
       <c r="Z28">
-        <v>30.1</v>
+        <v>65.483333333333306</v>
       </c>
       <c r="AB28">
-        <v>85.4</v>
+        <v>81</v>
       </c>
       <c r="AC28">
-        <v>42.133333333333297</v>
+        <v>42.3333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29">
-        <v>60.55</v>
+        <v>113.85</v>
       </c>
       <c r="B29">
-        <v>70.983333333333306</v>
+        <v>15.0166666666666</v>
       </c>
       <c r="D29">
-        <v>101.81666666666599</v>
+        <v>70.5</v>
       </c>
       <c r="E29">
-        <v>34.183333333333302</v>
+        <v>58.566666666666599</v>
       </c>
       <c r="G29">
-        <v>66.933333333333294</v>
+        <v>72.566666666666606</v>
       </c>
       <c r="H29">
-        <v>68.133333333333297</v>
+        <v>56.9</v>
       </c>
       <c r="J29">
-        <v>87.266666666666595</v>
+        <v>104.183333333333</v>
       </c>
       <c r="K29">
-        <v>47</v>
+        <v>27.15</v>
       </c>
       <c r="M29">
-        <v>79.6666666666666</v>
+        <v>92.35</v>
       </c>
       <c r="N29">
-        <v>53.933333333333302</v>
+        <v>34.383333333333297</v>
       </c>
       <c r="P29">
-        <v>84.8</v>
+        <v>121.36666666666601</v>
       </c>
       <c r="Q29">
-        <v>51.133333333333297</v>
+        <v>12.3666666666666</v>
       </c>
       <c r="S29">
-        <v>100.933333333333</v>
+        <v>67.433333333333294</v>
       </c>
       <c r="T29">
-        <v>30.266666666666602</v>
+        <v>62.766666666666602</v>
       </c>
       <c r="V29">
-        <v>67.1666666666666</v>
+        <v>73.683333333333294</v>
       </c>
       <c r="W29">
-        <v>66.766666666666595</v>
+        <v>54.983333333333299</v>
       </c>
       <c r="Y29">
-        <v>98.116666666666603</v>
+        <v>58.5</v>
       </c>
       <c r="Z29">
-        <v>33.75</v>
+        <v>70.233333333333306</v>
       </c>
       <c r="AB29">
-        <v>89.35</v>
+        <v>82.2</v>
       </c>
       <c r="AC29">
-        <v>43.183333333333302</v>
+        <v>45.066666666666599</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30">
-        <v>61.283333333333303</v>
+        <v>119.783333333333</v>
       </c>
       <c r="B30">
-        <v>75.5833333333333</v>
+        <v>14.216666666666599</v>
       </c>
       <c r="D30">
-        <v>107.73333333333299</v>
+        <v>74.466666666666598</v>
       </c>
       <c r="E30">
-        <v>32.733333333333299</v>
+        <v>60.6</v>
       </c>
       <c r="G30">
-        <v>72.016666666666595</v>
+        <v>78.3333333333333</v>
       </c>
       <c r="H30">
-        <v>67.849999999999994</v>
+        <v>56.533333333333303</v>
       </c>
       <c r="J30">
-        <v>91.466666666666598</v>
+        <v>104.633333333333</v>
       </c>
       <c r="K30">
-        <v>47.733333333333299</v>
+        <v>30.633333333333301</v>
       </c>
       <c r="M30">
-        <v>82.966666666666598</v>
+        <v>97.966666666666598</v>
       </c>
       <c r="N30">
-        <v>54.3</v>
+        <v>33.366666666666603</v>
       </c>
       <c r="P30">
-        <v>87.933333333333294</v>
+        <v>126.36666666666601</v>
       </c>
       <c r="Q30">
-        <v>52.8</v>
+        <v>12.033333333333299</v>
       </c>
       <c r="S30">
-        <v>102.766666666666</v>
+        <v>69.05</v>
       </c>
       <c r="T30">
-        <v>32.8333333333333</v>
+        <v>65.616666666666603</v>
       </c>
       <c r="V30">
-        <v>69.516666666666595</v>
+        <v>73.5833333333333</v>
       </c>
       <c r="W30">
-        <v>68.816666666666606</v>
+        <v>61.216666666666598</v>
       </c>
       <c r="Y30">
-        <v>98.066666666666606</v>
+        <v>58.566666666666599</v>
       </c>
       <c r="Z30">
-        <v>37.066666666666599</v>
+        <v>74.5</v>
       </c>
       <c r="AB30">
-        <v>94.0833333333333</v>
+        <v>83.316666666666606</v>
       </c>
       <c r="AC30">
-        <v>43.85</v>
+        <v>48.483333333333299</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31">
-        <v>62.35</v>
+        <v>126.883333333333</v>
       </c>
       <c r="B31">
-        <v>78.9166666666666</v>
+        <v>13.783333333333299</v>
       </c>
       <c r="D31">
-        <v>114.85</v>
+        <v>77.816666666666606</v>
       </c>
       <c r="E31">
-        <v>31.55</v>
+        <v>61.5833333333333</v>
       </c>
       <c r="G31">
-        <v>77.016666666666595</v>
+        <v>82.433333333333294</v>
       </c>
       <c r="H31">
-        <v>67.116666666666603</v>
+        <v>56.7</v>
       </c>
       <c r="J31">
-        <v>96.4166666666666</v>
+        <v>105.86666666666601</v>
       </c>
       <c r="K31">
-        <v>48.116666666666603</v>
+        <v>35.266666666666602</v>
       </c>
       <c r="M31">
-        <v>86.5833333333333</v>
+        <v>105.133333333333</v>
       </c>
       <c r="N31">
-        <v>54.75</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="P31">
-        <v>89</v>
+        <v>131.73333333333301</v>
       </c>
       <c r="Q31">
-        <v>54.4</v>
+        <v>10.6666666666666</v>
       </c>
       <c r="S31">
-        <v>104.48333333333299</v>
+        <v>70.983333333333306</v>
       </c>
       <c r="T31">
-        <v>35.450000000000003</v>
+        <v>68.616666666666603</v>
       </c>
       <c r="V31">
-        <v>72.45</v>
+        <v>73.650000000000006</v>
       </c>
       <c r="W31">
-        <v>70.349999999999994</v>
+        <v>66.4166666666666</v>
       </c>
       <c r="Y31">
-        <v>99.2</v>
+        <v>59.616666666666603</v>
       </c>
       <c r="Z31">
-        <v>42.2</v>
+        <v>77.716666666666598</v>
       </c>
       <c r="AB31">
-        <v>98.516666666666595</v>
+        <v>85.233333333333306</v>
       </c>
       <c r="AC31">
-        <v>44.683333333333302</v>
+        <v>52.766666666666602</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32">
-        <v>62.783333333333303</v>
+        <v>130.4</v>
       </c>
       <c r="B32">
-        <v>83.616666666666603</v>
+        <v>15.066666666666601</v>
       </c>
       <c r="D32">
-        <v>120.25</v>
+        <v>80</v>
       </c>
       <c r="E32">
-        <v>30.483333333333299</v>
+        <v>64.133333333333297</v>
       </c>
       <c r="G32">
-        <v>82.816666666666606</v>
+        <v>86.933333333333294</v>
       </c>
       <c r="H32">
-        <v>66.05</v>
+        <v>57.8</v>
       </c>
       <c r="J32">
-        <v>100.533333333333</v>
+        <v>104.9</v>
       </c>
       <c r="K32">
-        <v>49.8</v>
+        <v>39.233333333333299</v>
       </c>
       <c r="M32">
-        <v>90.55</v>
+        <v>110.933333333333</v>
       </c>
       <c r="N32">
-        <v>55.716666666666598</v>
+        <v>30.6666666666666</v>
       </c>
       <c r="P32">
-        <v>91.066666666666606</v>
+        <v>136.833333333333</v>
       </c>
       <c r="Q32">
-        <v>55.2</v>
+        <v>10.1</v>
       </c>
       <c r="S32">
-        <v>107.85</v>
+        <v>72.316666666666606</v>
       </c>
       <c r="T32">
-        <v>36.950000000000003</v>
+        <v>72.216666666666598</v>
       </c>
       <c r="V32">
-        <v>75.566666666666606</v>
+        <v>72.75</v>
       </c>
       <c r="W32">
-        <v>72.033333333333303</v>
+        <v>73.516666666666595</v>
       </c>
       <c r="Y32">
-        <v>100.95</v>
+        <v>61.316666666666599</v>
       </c>
       <c r="Z32">
-        <v>45.05</v>
+        <v>82.216666666666598</v>
       </c>
       <c r="AB32">
-        <v>102.48333333333299</v>
+        <v>86.266666666666595</v>
       </c>
       <c r="AC32">
-        <v>46.05</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="A33">
-        <v>63.433333333333302</v>
+        <v>134.88333333333301</v>
       </c>
       <c r="B33">
-        <v>88.8333333333333</v>
+        <v>15.25</v>
       </c>
       <c r="D33">
-        <v>126.05</v>
+        <v>82.133333333333297</v>
       </c>
       <c r="E33">
-        <v>28.6166666666666</v>
+        <v>67.8</v>
       </c>
       <c r="G33">
-        <v>87.35</v>
+        <v>91.45</v>
       </c>
       <c r="H33">
-        <v>66.05</v>
+        <v>57.483333333333299</v>
       </c>
       <c r="J33">
-        <v>103.833333333333</v>
+        <v>104.7</v>
       </c>
       <c r="K33">
-        <v>49.233333333333299</v>
+        <v>45.1</v>
       </c>
       <c r="M33">
-        <v>93.35</v>
+        <v>117.31666666666599</v>
       </c>
       <c r="N33">
-        <v>57.183333333333302</v>
+        <v>29.15</v>
       </c>
       <c r="P33">
-        <v>93.8</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="Q33">
-        <v>58.066666666666599</v>
+        <v>9.7666666666666604</v>
       </c>
       <c r="S33">
-        <v>110.5</v>
+        <v>74.266666666666595</v>
       </c>
       <c r="T33">
-        <v>38.566666666666599</v>
+        <v>75.266666666666595</v>
       </c>
       <c r="V33">
-        <v>78.816666666666606</v>
+        <v>73.033333333333303</v>
       </c>
       <c r="W33">
-        <v>73.716666666666598</v>
+        <v>78.233333333333306</v>
       </c>
       <c r="Y33">
-        <v>102.05</v>
+        <v>63.266666666666602</v>
       </c>
       <c r="Z33">
-        <v>49.95</v>
+        <v>86</v>
       </c>
       <c r="AB33">
-        <v>106.61666666666601</v>
+        <v>86.4166666666666</v>
       </c>
       <c r="AC33">
-        <v>46.383333333333297</v>
+        <v>60.85</v>
       </c>
     </row>
     <row r="34" spans="1:29">
       <c r="A34">
-        <v>63.266666666666602</v>
+        <v>137.183333333333</v>
       </c>
       <c r="B34">
-        <v>94.133333333333297</v>
+        <v>18.4166666666666</v>
       </c>
       <c r="D34">
-        <v>131.78333333333299</v>
+        <v>84.9</v>
       </c>
       <c r="E34">
-        <v>27.35</v>
+        <v>70.566666666666606</v>
       </c>
       <c r="G34">
-        <v>92.316666666666606</v>
+        <v>98.783333333333303</v>
       </c>
       <c r="H34">
-        <v>66.483333333333306</v>
+        <v>56.4166666666666</v>
       </c>
       <c r="J34">
-        <v>108.183333333333</v>
+        <v>104.716666666666</v>
       </c>
       <c r="K34">
-        <v>49.683333333333302</v>
+        <v>51.0833333333333</v>
       </c>
       <c r="M34">
-        <v>96.566666666666606</v>
+        <v>124.916666666666</v>
       </c>
       <c r="N34">
-        <v>58.233333333333299</v>
+        <v>28.283333333333299</v>
       </c>
       <c r="P34">
-        <v>97.566666666666606</v>
+        <v>146.38333333333301</v>
       </c>
       <c r="Q34">
-        <v>60.7</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="S34">
-        <v>113.383333333333</v>
+        <v>76.5833333333333</v>
       </c>
       <c r="T34">
-        <v>40.483333333333299</v>
+        <v>76.75</v>
       </c>
       <c r="V34">
-        <v>81.983333333333306</v>
+        <v>74.3</v>
       </c>
       <c r="W34">
-        <v>74.816666666666606</v>
+        <v>81.8333333333333</v>
       </c>
       <c r="Y34">
-        <v>102.98333333333299</v>
+        <v>66.4166666666666</v>
       </c>
       <c r="Z34">
-        <v>53.883333333333297</v>
+        <v>88.65</v>
       </c>
       <c r="AB34">
-        <v>111.766666666666</v>
+        <v>87.316666666666606</v>
       </c>
       <c r="AC34">
-        <v>46.566666666666599</v>
+        <v>65.75</v>
       </c>
     </row>
     <row r="35" spans="1:29">
       <c r="A35">
-        <v>63.483333333333299</v>
+        <v>138.98333333333301</v>
       </c>
       <c r="B35">
-        <v>98.9166666666666</v>
+        <v>22.283333333333299</v>
       </c>
       <c r="D35">
-        <v>137.13333333333301</v>
+        <v>86.35</v>
       </c>
       <c r="E35">
-        <v>26</v>
+        <v>73.9166666666666</v>
       </c>
       <c r="G35">
-        <v>97.183333333333294</v>
+        <v>104.7</v>
       </c>
       <c r="H35">
-        <v>66.683333333333294</v>
+        <v>55.566666666666599</v>
       </c>
       <c r="J35">
-        <v>110.666666666666</v>
+        <v>104.2</v>
       </c>
       <c r="K35">
-        <v>51.6</v>
+        <v>55.933333333333302</v>
       </c>
       <c r="M35">
-        <v>99.616666666666603</v>
+        <v>131.85</v>
       </c>
       <c r="N35">
-        <v>60.05</v>
+        <v>26.75</v>
       </c>
       <c r="P35">
-        <v>100.9</v>
+        <v>150.766666666666</v>
       </c>
       <c r="Q35">
-        <v>63.1666666666666</v>
+        <v>10.5</v>
       </c>
       <c r="S35">
-        <v>115.6</v>
+        <v>79.616666666666603</v>
       </c>
       <c r="T35">
-        <v>43.6</v>
+        <v>78.716666666666598</v>
       </c>
       <c r="V35">
-        <v>83.866666666666603</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="W35">
-        <v>79.133333333333297</v>
+        <v>85.016666666666595</v>
       </c>
       <c r="Y35">
-        <v>104.06666666666599</v>
+        <v>68.0833333333333</v>
       </c>
       <c r="Z35">
-        <v>58.266666666666602</v>
+        <v>92.316666666666606</v>
       </c>
       <c r="AB35">
-        <v>114.766666666666</v>
+        <v>87.366666666666603</v>
       </c>
       <c r="AC35">
-        <v>46.966666666666598</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36">
-        <v>62.983333333333299</v>
+        <v>138.5</v>
       </c>
       <c r="B36">
-        <v>104.883333333333</v>
+        <v>26.8333333333333</v>
       </c>
       <c r="D36">
-        <v>144.73333333333301</v>
+        <v>86.8333333333333</v>
       </c>
       <c r="E36">
-        <v>25.2</v>
+        <v>78.433333333333294</v>
       </c>
       <c r="G36">
-        <v>101.583333333333</v>
+        <v>111.61666666666601</v>
       </c>
       <c r="H36">
-        <v>66.483333333333306</v>
+        <v>55.716666666666598</v>
       </c>
       <c r="J36">
-        <v>112.25</v>
+        <v>103.65</v>
       </c>
       <c r="K36">
-        <v>55.283333333333303</v>
+        <v>62.4166666666666</v>
       </c>
       <c r="M36">
-        <v>102.333333333333</v>
+        <v>135.75</v>
       </c>
       <c r="N36">
-        <v>63.466666666666598</v>
+        <v>24.716666666666601</v>
       </c>
       <c r="P36">
-        <v>102.416666666666</v>
+        <v>154.03333333333299</v>
       </c>
       <c r="Q36">
-        <v>65.650000000000006</v>
+        <v>10.1666666666666</v>
       </c>
       <c r="S36">
-        <v>119.2</v>
+        <v>83.566666666666606</v>
       </c>
       <c r="T36">
-        <v>45.933333333333302</v>
+        <v>80.033333333333303</v>
       </c>
       <c r="V36">
-        <v>86.1666666666666</v>
+        <v>77.766666666666595</v>
       </c>
       <c r="W36">
-        <v>81.099999999999994</v>
+        <v>87.1</v>
       </c>
       <c r="Y36">
-        <v>105.5</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="Z36">
-        <v>61.7</v>
+        <v>93.716666666666598</v>
       </c>
       <c r="AB36">
-        <v>119.48333333333299</v>
+        <v>87.183333333333294</v>
       </c>
       <c r="AC36">
-        <v>47.9166666666666</v>
+        <v>76.150000000000006</v>
       </c>
     </row>
     <row r="37" spans="1:29">
       <c r="A37">
-        <v>62.683333333333302</v>
+        <v>138.44999999999999</v>
       </c>
       <c r="B37">
-        <v>109.25</v>
+        <v>31.816666666666599</v>
       </c>
       <c r="D37">
-        <v>151.416666666666</v>
+        <v>88.033333333333303</v>
       </c>
       <c r="E37">
-        <v>23.9166666666666</v>
+        <v>82.633333333333297</v>
       </c>
       <c r="G37">
-        <v>106.75</v>
+        <v>115.633333333333</v>
       </c>
       <c r="H37">
-        <v>66.983333333333306</v>
+        <v>55.1</v>
       </c>
       <c r="J37">
-        <v>112.75</v>
+        <v>103.916666666666</v>
       </c>
       <c r="K37">
-        <v>60.983333333333299</v>
+        <v>67.016666666666595</v>
       </c>
       <c r="M37">
-        <v>105.666666666666</v>
+        <v>141.03333333333299</v>
       </c>
       <c r="N37">
-        <v>66.2</v>
+        <v>24.966666666666601</v>
       </c>
       <c r="P37">
-        <v>105.4</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="Q37">
-        <v>68.133333333333297</v>
+        <v>10.533333333333299</v>
       </c>
       <c r="S37">
-        <v>121.4</v>
+        <v>86.7</v>
       </c>
       <c r="T37">
-        <v>48.266666666666602</v>
+        <v>82.5</v>
       </c>
       <c r="V37">
-        <v>87.683333333333294</v>
+        <v>80.3333333333333</v>
       </c>
       <c r="W37">
-        <v>84.05</v>
+        <v>89.2</v>
       </c>
       <c r="Y37">
-        <v>107.033333333333</v>
+        <v>75.983333333333306</v>
       </c>
       <c r="Z37">
-        <v>66.033333333333303</v>
+        <v>94.483333333333306</v>
       </c>
       <c r="AB37">
-        <v>121.833333333333</v>
+        <v>87.55</v>
       </c>
       <c r="AC37">
-        <v>49.966666666666598</v>
+        <v>80.5833333333333</v>
       </c>
     </row>
     <row r="38" spans="1:29">
       <c r="A38">
-        <v>63.466666666666598</v>
+        <v>137.1</v>
       </c>
       <c r="B38">
-        <v>113.933333333333</v>
+        <v>36.566666666666599</v>
       </c>
       <c r="D38">
-        <v>155.683333333333</v>
+        <v>89.05</v>
       </c>
       <c r="E38">
-        <v>23.25</v>
+        <v>83.95</v>
       </c>
       <c r="G38">
-        <v>112.683333333333</v>
+        <v>120.933333333333</v>
       </c>
       <c r="H38">
-        <v>66.383333333333297</v>
+        <v>54.866666666666603</v>
       </c>
       <c r="J38">
-        <v>113.48333333333299</v>
+        <v>104.083333333333</v>
       </c>
       <c r="K38">
-        <v>63.9166666666666</v>
+        <v>70.983333333333306</v>
       </c>
       <c r="M38">
-        <v>109.15</v>
+        <v>147.96666666666599</v>
       </c>
       <c r="N38">
-        <v>67.783333333333303</v>
+        <v>23.633333333333301</v>
       </c>
       <c r="P38">
-        <v>107.81666666666599</v>
+        <v>160.75</v>
       </c>
       <c r="Q38">
-        <v>70.5833333333333</v>
+        <v>11.85</v>
       </c>
       <c r="S38">
-        <v>124.516666666666</v>
+        <v>89.85</v>
       </c>
       <c r="T38">
-        <v>50.883333333333297</v>
+        <v>85.95</v>
       </c>
       <c r="V38">
-        <v>90.316666666666606</v>
+        <v>83.15</v>
       </c>
       <c r="W38">
-        <v>87.216666666666598</v>
+        <v>91.316666666666606</v>
       </c>
       <c r="Y38">
-        <v>108.383333333333</v>
+        <v>81.8</v>
       </c>
       <c r="Z38">
-        <v>70.150000000000006</v>
+        <v>94.133333333333297</v>
       </c>
       <c r="AB38">
-        <v>125.583333333333</v>
+        <v>88.6666666666666</v>
       </c>
       <c r="AC38">
-        <v>51.016666666666602</v>
+        <v>85.466666666666598</v>
       </c>
     </row>
     <row r="39" spans="1:29">
       <c r="A39">
-        <v>63.25</v>
+        <v>137.5</v>
       </c>
       <c r="B39">
-        <v>118.35</v>
+        <v>41.5</v>
       </c>
       <c r="D39">
-        <v>162.05000000000001</v>
+        <v>89.15</v>
       </c>
       <c r="E39">
-        <v>23.0833333333333</v>
+        <v>87.5833333333333</v>
       </c>
       <c r="G39">
-        <v>119.433333333333</v>
+        <v>125.61666666666601</v>
       </c>
       <c r="H39">
-        <v>66.033333333333303</v>
+        <v>55.716666666666598</v>
       </c>
       <c r="J39">
-        <v>114.73333333333299</v>
+        <v>105.683333333333</v>
       </c>
       <c r="K39">
-        <v>67.266666666666595</v>
+        <v>74.45</v>
       </c>
       <c r="M39">
-        <v>110.5</v>
+        <v>153.85</v>
       </c>
       <c r="N39">
-        <v>70.900000000000006</v>
+        <v>22.4166666666666</v>
       </c>
       <c r="P39">
-        <v>108.183333333333</v>
+        <v>163.933333333333</v>
       </c>
       <c r="Q39">
-        <v>74.483333333333306</v>
+        <v>12.4</v>
       </c>
       <c r="S39">
-        <v>126.81666666666599</v>
+        <v>90.9</v>
       </c>
       <c r="T39">
-        <v>53.183333333333302</v>
+        <v>88.566666666666606</v>
       </c>
       <c r="V39">
-        <v>91.0833333333333</v>
+        <v>84.683333333333294</v>
       </c>
       <c r="W39">
-        <v>92.316666666666606</v>
+        <v>91.516666666666595</v>
       </c>
       <c r="Y39">
-        <v>110.283333333333</v>
+        <v>85.366666666666603</v>
       </c>
       <c r="Z39">
-        <v>72.983333333333306</v>
+        <v>94.766666666666595</v>
       </c>
       <c r="AB39">
-        <v>129</v>
+        <v>88.75</v>
       </c>
       <c r="AC39">
-        <v>52.8</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40">
-        <v>62.3</v>
+        <v>137.833333333333</v>
       </c>
       <c r="B40">
-        <v>124.033333333333</v>
+        <v>44.9</v>
       </c>
       <c r="D40">
-        <v>166.21666666666599</v>
+        <v>90.766666666666595</v>
       </c>
       <c r="E40">
-        <v>22.183333333333302</v>
+        <v>90.433333333333294</v>
       </c>
       <c r="G40">
-        <v>125.533333333333</v>
+        <v>127.55</v>
       </c>
       <c r="H40">
-        <v>65.2</v>
+        <v>57.5833333333333</v>
       </c>
       <c r="J40">
-        <v>115.6</v>
+        <v>107.23333333333299</v>
       </c>
       <c r="K40">
-        <v>70.866666666666603</v>
+        <v>78.966666666666598</v>
       </c>
       <c r="M40">
-        <v>111.016666666666</v>
+        <v>158.63333333333301</v>
       </c>
       <c r="N40">
-        <v>73.650000000000006</v>
+        <v>21.3666666666666</v>
       </c>
       <c r="P40">
-        <v>107.683333333333</v>
+        <v>167.75</v>
       </c>
       <c r="Q40">
-        <v>79.25</v>
+        <v>13.5833333333333</v>
       </c>
       <c r="S40">
-        <v>132.6</v>
+        <v>92.216666666666598</v>
       </c>
       <c r="T40">
-        <v>54.466666666666598</v>
+        <v>91.65</v>
       </c>
       <c r="V40">
-        <v>91.25</v>
+        <v>87</v>
       </c>
       <c r="W40">
-        <v>96.216666666666598</v>
+        <v>93.866666666666603</v>
       </c>
       <c r="Y40">
-        <v>113.883333333333</v>
+        <v>90.15</v>
       </c>
       <c r="Z40">
-        <v>75.183333333333294</v>
+        <v>96.05</v>
       </c>
       <c r="AB40">
-        <v>132.833333333333</v>
+        <v>89.133333333333297</v>
       </c>
       <c r="AC40">
-        <v>52.633333333333297</v>
+        <v>95.533333333333303</v>
       </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41">
-        <v>61.383333333333297</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="B41">
-        <v>130.016666666666</v>
+        <v>50.4166666666666</v>
       </c>
       <c r="D41">
-        <v>171.86666666666599</v>
+        <v>94.1666666666666</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>91.366666666666603</v>
       </c>
       <c r="G41">
-        <v>129.69999999999999</v>
+        <v>130.083333333333</v>
       </c>
       <c r="H41">
-        <v>64.900000000000006</v>
+        <v>59.316666666666599</v>
       </c>
       <c r="J41">
-        <v>118.966666666666</v>
+        <v>108.36666666666601</v>
       </c>
       <c r="K41">
-        <v>73.433333333333294</v>
+        <v>82.3</v>
       </c>
       <c r="M41">
-        <v>110.11666666666601</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="N41">
-        <v>79.349999999999994</v>
+        <v>20.9</v>
       </c>
       <c r="P41">
-        <v>108.216666666666</v>
+        <v>170.88333333333301</v>
       </c>
       <c r="Q41">
-        <v>84.65</v>
+        <v>14.983333333333301</v>
       </c>
       <c r="S41">
-        <v>135.9</v>
+        <v>94.15</v>
       </c>
       <c r="T41">
-        <v>55.5</v>
+        <v>94.5833333333333</v>
       </c>
       <c r="V41">
-        <v>92.283333333333303</v>
+        <v>89.95</v>
       </c>
       <c r="W41">
-        <v>100.716666666666</v>
+        <v>96.25</v>
       </c>
       <c r="Y41">
-        <v>114.133333333333</v>
+        <v>95.966666666666598</v>
       </c>
       <c r="Z41">
-        <v>79.266666666666595</v>
+        <v>95.766666666666595</v>
       </c>
       <c r="AB41">
-        <v>135.31666666666601</v>
+        <v>89.733333333333306</v>
       </c>
       <c r="AC41">
-        <v>54.35</v>
+        <v>99.266666666666595</v>
       </c>
     </row>
     <row r="42" spans="1:29">
       <c r="A42">
-        <v>61.033333333333303</v>
+        <v>135.53333333333299</v>
       </c>
       <c r="B42">
-        <v>133.833333333333</v>
+        <v>54.866666666666603</v>
       </c>
       <c r="D42">
-        <v>175.266666666666</v>
+        <v>98.0833333333333</v>
       </c>
       <c r="E42">
-        <v>22.533333333333299</v>
+        <v>93.716666666666598</v>
       </c>
       <c r="G42">
-        <v>135.416666666666</v>
+        <v>133.81666666666601</v>
       </c>
       <c r="H42">
-        <v>64.849999999999994</v>
+        <v>61.25</v>
       </c>
       <c r="J42">
-        <v>119.61666666666601</v>
+        <v>111.55</v>
       </c>
       <c r="K42">
-        <v>76.316666666666606</v>
+        <v>84.716666666666598</v>
       </c>
       <c r="M42">
-        <v>109.633333333333</v>
+        <v>168.56666666666601</v>
       </c>
       <c r="N42">
-        <v>85.7</v>
+        <v>20.1666666666666</v>
       </c>
       <c r="P42">
-        <v>108.56666666666599</v>
+        <v>174.31666666666601</v>
       </c>
       <c r="Q42">
-        <v>88.9</v>
+        <v>15.816666666666601</v>
       </c>
       <c r="S42">
-        <v>138.433333333333</v>
+        <v>96.5833333333333</v>
       </c>
       <c r="T42">
-        <v>56.9</v>
+        <v>97.55</v>
       </c>
       <c r="V42">
-        <v>92.516666666666595</v>
+        <v>91.4</v>
       </c>
       <c r="W42">
-        <v>105.283333333333</v>
+        <v>99.3333333333333</v>
       </c>
       <c r="Y42">
-        <v>114.516666666666</v>
+        <v>101.416666666666</v>
       </c>
       <c r="Z42">
-        <v>84.55</v>
+        <v>95.5833333333333</v>
       </c>
       <c r="AB42">
-        <v>139.56666666666601</v>
+        <v>89.4166666666666</v>
       </c>
       <c r="AC42">
-        <v>55.433333333333302</v>
+        <v>105.583333333333</v>
       </c>
     </row>
     <row r="43" spans="1:29">
       <c r="A43">
-        <v>61.65</v>
+        <v>134</v>
       </c>
       <c r="B43">
-        <v>139.016666666666</v>
+        <v>60.4</v>
       </c>
       <c r="D43">
-        <v>179.23333333333301</v>
+        <v>101</v>
       </c>
       <c r="E43">
-        <v>25.3666666666666</v>
+        <v>96.933333333333294</v>
       </c>
       <c r="G43">
-        <v>141.11666666666599</v>
+        <v>134.23333333333301</v>
       </c>
       <c r="H43">
-        <v>64.55</v>
+        <v>64.8333333333333</v>
       </c>
       <c r="J43">
-        <v>121.3</v>
+        <v>113.033333333333</v>
       </c>
       <c r="K43">
-        <v>80.233333333333306</v>
+        <v>86.5</v>
       </c>
       <c r="M43">
-        <v>108.166666666666</v>
+        <v>173.833333333333</v>
       </c>
       <c r="N43">
-        <v>90.566666666666606</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="P43">
-        <v>109.333333333333</v>
+        <v>177.63333333333301</v>
       </c>
       <c r="Q43">
-        <v>93</v>
+        <v>16.766666666666602</v>
       </c>
       <c r="S43">
-        <v>140.433333333333</v>
+        <v>98.516666666666595</v>
       </c>
       <c r="T43">
-        <v>58.3</v>
+        <v>100.216666666666</v>
       </c>
       <c r="V43">
-        <v>93.3</v>
+        <v>92.95</v>
       </c>
       <c r="W43">
-        <v>109.833333333333</v>
+        <v>101.65</v>
       </c>
       <c r="Y43">
-        <v>114.56666666666599</v>
+        <v>107.81666666666599</v>
       </c>
       <c r="Z43">
-        <v>87.366666666666603</v>
+        <v>94.25</v>
       </c>
       <c r="AB43">
-        <v>141.94999999999999</v>
+        <v>89.183333333333294</v>
       </c>
       <c r="AC43">
-        <v>58.183333333333302</v>
+        <v>110.083333333333</v>
       </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44">
-        <v>62.933333333333302</v>
+        <v>132.1</v>
       </c>
       <c r="B44">
-        <v>142</v>
+        <v>66.5</v>
       </c>
       <c r="D44">
-        <v>184.11666666666599</v>
+        <v>104.8</v>
       </c>
       <c r="E44">
-        <v>24.55</v>
+        <v>98.133333333333297</v>
       </c>
       <c r="G44">
-        <v>146.69999999999999</v>
+        <v>136.1</v>
       </c>
       <c r="H44">
-        <v>63.566666666666599</v>
+        <v>68.1666666666666</v>
       </c>
       <c r="J44">
-        <v>124.933333333333</v>
+        <v>115.56666666666599</v>
       </c>
       <c r="K44">
-        <v>82.4</v>
+        <v>87.033333333333303</v>
       </c>
       <c r="M44">
-        <v>109.016666666666</v>
+        <v>177.9</v>
       </c>
       <c r="N44">
-        <v>95.65</v>
+        <v>19.1666666666666</v>
       </c>
       <c r="P44">
-        <v>111.183333333333</v>
+        <v>182.46666666666599</v>
       </c>
       <c r="Q44">
-        <v>95.55</v>
+        <v>17.8</v>
       </c>
       <c r="S44">
-        <v>143.05000000000001</v>
+        <v>98.85</v>
       </c>
       <c r="T44">
-        <v>62.683333333333302</v>
+        <v>104.216666666666</v>
       </c>
       <c r="V44">
-        <v>95.216666666666598</v>
+        <v>95.066666666666606</v>
       </c>
       <c r="W44">
-        <v>114.31666666666599</v>
+        <v>103.86666666666601</v>
       </c>
       <c r="Y44">
-        <v>114.36666666666601</v>
+        <v>113.683333333333</v>
       </c>
       <c r="Z44">
-        <v>92.566666666666606</v>
+        <v>93.05</v>
       </c>
       <c r="AB44">
-        <v>145.15</v>
+        <v>90.616666666666603</v>
       </c>
       <c r="AC44">
-        <v>59.9166666666666</v>
+        <v>113.98333333333299</v>
       </c>
     </row>
     <row r="45" spans="1:29">
       <c r="A45">
-        <v>64.0833333333333</v>
+        <v>130.433333333333</v>
       </c>
       <c r="B45">
-        <v>144.516666666666</v>
+        <v>73.766666666666595</v>
       </c>
       <c r="D45">
-        <v>186.71666666666599</v>
+        <v>108.25</v>
       </c>
       <c r="E45">
-        <v>24.883333333333301</v>
+        <v>99.816666666666606</v>
       </c>
       <c r="G45">
-        <v>150.416666666666</v>
+        <v>137.35</v>
       </c>
       <c r="H45">
-        <v>63.116666666666603</v>
+        <v>68.716666666666598</v>
       </c>
       <c r="J45">
-        <v>127.966666666666</v>
+        <v>118.48333333333299</v>
       </c>
       <c r="K45">
-        <v>83.8333333333333</v>
+        <v>87.9166666666666</v>
       </c>
       <c r="M45">
-        <v>108.383333333333</v>
+        <v>183.96666666666599</v>
       </c>
       <c r="N45">
-        <v>101.083333333333</v>
+        <v>18.7</v>
       </c>
       <c r="P45">
-        <v>112.7</v>
+        <v>187.166666666666</v>
       </c>
       <c r="Q45">
-        <v>99.433333333333294</v>
+        <v>18.033333333333299</v>
       </c>
       <c r="S45">
-        <v>145.56666666666601</v>
+        <v>100.466666666666</v>
       </c>
       <c r="T45">
-        <v>66.7</v>
+        <v>110.6</v>
       </c>
       <c r="V45">
-        <v>95.933333333333294</v>
+        <v>96.766666666666595</v>
       </c>
       <c r="W45">
-        <v>117.2</v>
+        <v>107.36666666666601</v>
       </c>
       <c r="Y45">
-        <v>115.133333333333</v>
+        <v>120.933333333333</v>
       </c>
       <c r="Z45">
-        <v>97.733333333333306</v>
+        <v>92.4</v>
       </c>
       <c r="AB45">
-        <v>150.4</v>
+        <v>92.5</v>
       </c>
       <c r="AC45">
-        <v>60.6666666666666</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
       <c r="A46">
-        <v>65.433333333333294</v>
+        <v>129.61666666666599</v>
       </c>
       <c r="B46">
-        <v>146.23333333333301</v>
+        <v>81.783333333333303</v>
       </c>
       <c r="D46">
-        <v>188.81666666666601</v>
+        <v>112.833333333333</v>
       </c>
       <c r="E46">
-        <v>25.516666666666602</v>
+        <v>100.833333333333</v>
       </c>
       <c r="G46">
-        <v>153.30000000000001</v>
+        <v>139.65</v>
       </c>
       <c r="H46">
-        <v>64.7</v>
+        <v>69.216666666666598</v>
       </c>
       <c r="J46">
-        <v>130.833333333333</v>
+        <v>121.033333333333</v>
       </c>
       <c r="K46">
-        <v>85.9</v>
+        <v>89.3</v>
       </c>
       <c r="M46">
-        <v>110.1</v>
+        <v>186.1</v>
       </c>
       <c r="N46">
-        <v>106.23333333333299</v>
+        <v>19.3666666666666</v>
       </c>
       <c r="P46">
-        <v>112.8</v>
+        <v>190.766666666666</v>
       </c>
       <c r="Q46">
-        <v>104.06666666666599</v>
+        <v>19.7</v>
       </c>
       <c r="S46">
-        <v>146.71666666666599</v>
+        <v>100.683333333333</v>
       </c>
       <c r="T46">
-        <v>69.349999999999994</v>
+        <v>114.783333333333</v>
       </c>
       <c r="V46">
-        <v>98.066666666666606</v>
+        <v>99</v>
       </c>
       <c r="W46">
-        <v>121.133333333333</v>
+        <v>111.6</v>
       </c>
       <c r="Y46">
-        <v>116.61666666666601</v>
+        <v>127.783333333333</v>
       </c>
       <c r="Z46">
-        <v>100.916666666666</v>
+        <v>91.283333333333303</v>
       </c>
       <c r="AB46">
-        <v>153.56666666666601</v>
+        <v>94.05</v>
       </c>
       <c r="AC46">
-        <v>62.433333333333302</v>
+        <v>120.083333333333</v>
       </c>
     </row>
     <row r="47" spans="1:29">
       <c r="A47">
-        <v>67.6666666666666</v>
+        <v>128.38333333333301</v>
       </c>
       <c r="B47">
-        <v>146.80000000000001</v>
+        <v>87.616666666666603</v>
       </c>
       <c r="D47">
-        <v>190.31666666666601</v>
+        <v>117.466666666666</v>
       </c>
       <c r="E47">
-        <v>28.216666666666601</v>
+        <v>101.06666666666599</v>
       </c>
       <c r="G47">
-        <v>156.55000000000001</v>
+        <v>141.11666666666599</v>
       </c>
       <c r="H47">
-        <v>66.849999999999994</v>
+        <v>72.483333333333306</v>
       </c>
       <c r="J47">
-        <v>133.56666666666601</v>
+        <v>125.48333333333299</v>
       </c>
       <c r="K47">
-        <v>88.1</v>
+        <v>90.116666666666603</v>
       </c>
       <c r="M47">
-        <v>111.25</v>
+        <v>188.55</v>
       </c>
       <c r="N47">
-        <v>111.416666666666</v>
+        <v>21.1166666666666</v>
       </c>
       <c r="P47">
-        <v>114.36666666666601</v>
+        <v>193.98333333333301</v>
       </c>
       <c r="Q47">
-        <v>108.166666666666</v>
+        <v>21.216666666666601</v>
       </c>
       <c r="S47">
-        <v>147.833333333333</v>
+        <v>100.833333333333</v>
       </c>
       <c r="T47">
-        <v>73.433333333333294</v>
+        <v>119.56666666666599</v>
       </c>
       <c r="V47">
-        <v>99.35</v>
+        <v>99.45</v>
       </c>
       <c r="W47">
-        <v>123.583333333333</v>
+        <v>115.216666666666</v>
       </c>
       <c r="Y47">
-        <v>118.48333333333299</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="Z47">
-        <v>105.05</v>
+        <v>90.066666666666606</v>
       </c>
       <c r="AB47">
-        <v>157.13333333333301</v>
+        <v>95.866666666666603</v>
       </c>
       <c r="AC47">
-        <v>63.2</v>
+        <v>122.2</v>
       </c>
     </row>
     <row r="48" spans="1:29">
       <c r="A48">
-        <v>71.816666666666606</v>
+        <v>126.98333333333299</v>
       </c>
       <c r="B48">
-        <v>146.583333333333</v>
+        <v>91.616666666666603</v>
       </c>
       <c r="D48">
-        <v>191.61666666666599</v>
+        <v>122.4</v>
       </c>
       <c r="E48">
-        <v>31.183333333333302</v>
+        <v>101.86666666666601</v>
       </c>
       <c r="G48">
-        <v>158.183333333333</v>
+        <v>142.083333333333</v>
       </c>
       <c r="H48">
-        <v>68.816666666666606</v>
+        <v>76.716666666666598</v>
       </c>
       <c r="J48">
-        <v>134.78333333333299</v>
+        <v>128.78333333333299</v>
       </c>
       <c r="K48">
-        <v>91.616666666666603</v>
+        <v>91.883333333333297</v>
       </c>
       <c r="M48">
-        <v>112.5</v>
+        <v>192.46666666666599</v>
       </c>
       <c r="N48">
-        <v>115.966666666666</v>
+        <v>22.533333333333299</v>
       </c>
       <c r="P48">
-        <v>115.083333333333</v>
+        <v>195.916666666666</v>
       </c>
       <c r="Q48">
-        <v>113.183333333333</v>
+        <v>22.6166666666666</v>
       </c>
       <c r="S48">
-        <v>148.9</v>
+        <v>101.73333333333299</v>
       </c>
       <c r="T48">
-        <v>78.1666666666666</v>
+        <v>122.333333333333</v>
       </c>
       <c r="V48">
-        <v>100.416666666666</v>
+        <v>100.15</v>
       </c>
       <c r="W48">
-        <v>127.31666666666599</v>
+        <v>118.85</v>
       </c>
       <c r="Y48">
-        <v>120.86666666666601</v>
+        <v>137</v>
       </c>
       <c r="Z48">
-        <v>106.8</v>
+        <v>88.3333333333333</v>
       </c>
       <c r="AB48">
-        <v>160.266666666666</v>
+        <v>98.55</v>
       </c>
       <c r="AC48">
-        <v>65.3333333333333</v>
+        <v>124.583333333333</v>
       </c>
     </row>
     <row r="49" spans="1:29">
       <c r="A49">
-        <v>76.216666666666598</v>
+        <v>125.833333333333</v>
       </c>
       <c r="B49">
-        <v>146.44999999999999</v>
+        <v>96.433333333333294</v>
       </c>
       <c r="D49">
-        <v>191.7</v>
+        <v>126.56666666666599</v>
       </c>
       <c r="E49">
-        <v>36.1666666666666</v>
+        <v>101.9</v>
       </c>
       <c r="G49">
-        <v>159.63333333333301</v>
+        <v>143.5</v>
       </c>
       <c r="H49">
-        <v>72.366666666666603</v>
+        <v>81.566666666666606</v>
       </c>
       <c r="J49">
-        <v>137.23333333333301</v>
+        <v>132.4</v>
       </c>
       <c r="K49">
-        <v>95.366666666666603</v>
+        <v>93.133333333333297</v>
       </c>
       <c r="M49">
-        <v>114</v>
+        <v>195.81666666666601</v>
       </c>
       <c r="N49">
-        <v>119.933333333333</v>
+        <v>25.05</v>
       </c>
       <c r="P49">
-        <v>114.73333333333299</v>
+        <v>196.766666666666</v>
       </c>
       <c r="Q49">
-        <v>118.666666666666</v>
+        <v>25.966666666666601</v>
       </c>
       <c r="S49">
-        <v>150.30000000000001</v>
+        <v>103.183333333333</v>
       </c>
       <c r="T49">
-        <v>84.566666666666606</v>
+        <v>126.35</v>
       </c>
       <c r="V49">
-        <v>102.55</v>
+        <v>101.23333333333299</v>
       </c>
       <c r="W49">
-        <v>130.11666666666599</v>
+        <v>123.56666666666599</v>
       </c>
       <c r="Y49">
-        <v>122.45</v>
+        <v>139.85</v>
       </c>
       <c r="Z49">
-        <v>110.75</v>
+        <v>87.35</v>
       </c>
       <c r="AB49">
-        <v>163.5</v>
+        <v>101.73333333333299</v>
       </c>
       <c r="AC49">
-        <v>66.7</v>
+        <v>126.06666666666599</v>
       </c>
     </row>
     <row r="50" spans="1:29">
       <c r="A50">
-        <v>79.983333333333306</v>
+        <v>125.216666666666</v>
       </c>
       <c r="B50">
-        <v>146.81666666666601</v>
+        <v>100.383333333333</v>
       </c>
       <c r="D50">
-        <v>191.23333333333301</v>
+        <v>130.98333333333301</v>
       </c>
       <c r="E50">
-        <v>38.966666666666598</v>
+        <v>102.283333333333</v>
       </c>
       <c r="G50">
-        <v>162.35</v>
+        <v>144.63333333333301</v>
       </c>
       <c r="H50">
-        <v>74.983333333333306</v>
+        <v>84.566666666666606</v>
       </c>
       <c r="J50">
-        <v>139.416666666666</v>
+        <v>136.38333333333301</v>
       </c>
       <c r="K50">
-        <v>98.716666666666598</v>
+        <v>94.283333333333303</v>
       </c>
       <c r="M50">
-        <v>116.466666666666</v>
+        <v>199.7</v>
       </c>
       <c r="N50">
-        <v>121.933333333333</v>
+        <v>26.7</v>
       </c>
       <c r="P50">
-        <v>114.4</v>
+        <v>200.13333333333301</v>
       </c>
       <c r="Q50">
-        <v>124.6</v>
+        <v>30</v>
       </c>
       <c r="S50">
-        <v>149.6</v>
+        <v>104.73333333333299</v>
       </c>
       <c r="T50">
-        <v>88.8</v>
+        <v>129.933333333333</v>
       </c>
       <c r="V50">
-        <v>103.716666666666</v>
+        <v>102.433333333333</v>
       </c>
       <c r="W50">
-        <v>133.21666666666599</v>
+        <v>126.033333333333</v>
       </c>
       <c r="Y50">
-        <v>123.7</v>
+        <v>145.78333333333299</v>
       </c>
       <c r="Z50">
-        <v>114.3</v>
+        <v>86.816666666666606</v>
       </c>
       <c r="AB50">
-        <v>168.7</v>
+        <v>106.416666666666</v>
       </c>
       <c r="AC50">
-        <v>67.033333333333303</v>
+        <v>126.98333333333299</v>
       </c>
     </row>
     <row r="51" spans="1:29">
       <c r="A51">
-        <v>83.116666666666603</v>
+        <v>124.31666666666599</v>
       </c>
       <c r="B51">
-        <v>148.88333333333301</v>
+        <v>106.61666666666601</v>
       </c>
       <c r="D51">
-        <v>192.05</v>
+        <v>134.85</v>
       </c>
       <c r="E51">
-        <v>43.75</v>
+        <v>102.883333333333</v>
       </c>
       <c r="G51">
-        <v>164.06666666666601</v>
+        <v>144.46666666666599</v>
       </c>
       <c r="H51">
-        <v>78.2</v>
+        <v>90.133333333333297</v>
       </c>
       <c r="J51">
-        <v>141.81666666666601</v>
+        <v>138.86666666666599</v>
       </c>
       <c r="K51">
-        <v>100.11666666666601</v>
+        <v>96</v>
       </c>
       <c r="M51">
-        <v>118.36666666666601</v>
+        <v>203.5</v>
       </c>
       <c r="N51">
-        <v>124.1</v>
+        <v>28.433333333333302</v>
       </c>
       <c r="P51">
-        <v>115.1</v>
+        <v>201.516666666666</v>
       </c>
       <c r="Q51">
-        <v>128.30000000000001</v>
+        <v>32.4166666666666</v>
       </c>
       <c r="S51">
-        <v>149.1</v>
+        <v>105.166666666666</v>
       </c>
       <c r="T51">
-        <v>97.633333333333297</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="V51">
-        <v>106.383333333333</v>
+        <v>105.016666666666</v>
       </c>
       <c r="W51">
-        <v>136.28333333333299</v>
+        <v>129.05000000000001</v>
       </c>
       <c r="Y51">
-        <v>125.283333333333</v>
+        <v>149.71666666666599</v>
       </c>
       <c r="Z51">
-        <v>117.45</v>
+        <v>87.0833333333333</v>
       </c>
       <c r="AB51">
-        <v>172.433333333333</v>
+        <v>111.416666666666</v>
       </c>
       <c r="AC51">
-        <v>68.1666666666666</v>
+        <v>126.716666666666</v>
       </c>
     </row>
     <row r="52" spans="1:29">
       <c r="A52">
-        <v>87.783333333333303</v>
+        <v>123.016666666666</v>
       </c>
       <c r="B52">
-        <v>151.28333333333299</v>
+        <v>112.05</v>
       </c>
       <c r="D52">
-        <v>192.28333333333299</v>
+        <v>137.03333333333299</v>
       </c>
       <c r="E52">
-        <v>48.183333333333302</v>
+        <v>104.56666666666599</v>
       </c>
       <c r="G52">
-        <v>164.98333333333301</v>
+        <v>145.23333333333301</v>
       </c>
       <c r="H52">
-        <v>81.616666666666603</v>
+        <v>93.033333333333303</v>
       </c>
       <c r="J52">
-        <v>144.73333333333301</v>
+        <v>141.36666666666599</v>
       </c>
       <c r="K52">
-        <v>102.4</v>
+        <v>97.966666666666598</v>
       </c>
       <c r="M52">
-        <v>119.06666666666599</v>
+        <v>204.6</v>
       </c>
       <c r="N52">
-        <v>126.73333333333299</v>
+        <v>32.266666666666602</v>
       </c>
       <c r="P52">
-        <v>116.23333333333299</v>
+        <v>201.416666666666</v>
       </c>
       <c r="Q52">
-        <v>132.433333333333</v>
+        <v>34.65</v>
       </c>
       <c r="S52">
-        <v>147.9</v>
+        <v>105.23333333333299</v>
       </c>
       <c r="T52">
-        <v>104.23333333333299</v>
+        <v>138.96666666666599</v>
       </c>
       <c r="V52">
-        <v>108.016666666666</v>
+        <v>109.416666666666</v>
       </c>
       <c r="W52">
-        <v>139.71666666666599</v>
+        <v>130.583333333333</v>
       </c>
       <c r="Y52">
-        <v>127.75</v>
+        <v>152.36666666666599</v>
       </c>
       <c r="Z52">
-        <v>119.583333333333</v>
+        <v>88.9</v>
       </c>
       <c r="AB52">
-        <v>176.75</v>
+        <v>116.65</v>
       </c>
       <c r="AC52">
-        <v>68.849999999999994</v>
+        <v>126.883333333333</v>
       </c>
     </row>
     <row r="53" spans="1:29">
       <c r="A53">
-        <v>91.616666666666603</v>
+        <v>123.25</v>
       </c>
       <c r="B53">
-        <v>154.25</v>
+        <v>117.416666666666</v>
       </c>
       <c r="D53">
-        <v>193.13333333333301</v>
+        <v>138.766666666666</v>
       </c>
       <c r="E53">
-        <v>52.133333333333297</v>
+        <v>107.1</v>
       </c>
       <c r="G53">
-        <v>166.1</v>
+        <v>147.46666666666599</v>
       </c>
       <c r="H53">
-        <v>86.7</v>
+        <v>96.8</v>
       </c>
       <c r="J53">
-        <v>146.433333333333</v>
+        <v>142.9</v>
       </c>
       <c r="K53">
-        <v>105.166666666666</v>
+        <v>100.766666666666</v>
       </c>
       <c r="M53">
-        <v>120.05</v>
+        <v>206.31666666666601</v>
       </c>
       <c r="N53">
-        <v>131.21666666666599</v>
+        <v>34.75</v>
       </c>
       <c r="P53">
-        <v>118.81666666666599</v>
+        <v>201.916666666666</v>
       </c>
       <c r="Q53">
-        <v>135.31666666666601</v>
+        <v>37.616666666666603</v>
       </c>
       <c r="S53">
-        <v>146.98333333333301</v>
+        <v>105.35</v>
       </c>
       <c r="T53">
-        <v>109.95</v>
+        <v>143.516666666666</v>
       </c>
       <c r="V53">
-        <v>109.56666666666599</v>
+        <v>111.86666666666601</v>
       </c>
       <c r="W53">
-        <v>142.5</v>
+        <v>134.13333333333301</v>
       </c>
       <c r="Y53">
-        <v>130.333333333333</v>
+        <v>154.44999999999999</v>
       </c>
       <c r="Z53">
-        <v>122.06666666666599</v>
+        <v>90.883333333333297</v>
       </c>
       <c r="AB53">
-        <v>180.23333333333301</v>
+        <v>121.5</v>
       </c>
       <c r="AC53">
-        <v>70.5</v>
+        <v>127.3</v>
       </c>
     </row>
     <row r="54" spans="1:29">
       <c r="A54">
-        <v>93.95</v>
+        <v>122.9</v>
       </c>
       <c r="B54">
-        <v>158.11666666666599</v>
+        <v>122.033333333333</v>
       </c>
       <c r="D54">
-        <v>195.183333333333</v>
+        <v>141.06666666666601</v>
       </c>
       <c r="E54">
-        <v>54.4166666666666</v>
+        <v>110.86666666666601</v>
       </c>
       <c r="G54">
-        <v>166.75</v>
+        <v>149.666666666666</v>
       </c>
       <c r="H54">
-        <v>91.05</v>
+        <v>100.133333333333</v>
       </c>
       <c r="J54">
-        <v>151.183333333333</v>
+        <v>143.933333333333</v>
       </c>
       <c r="K54">
-        <v>107.883333333333</v>
+        <v>103.133333333333</v>
       </c>
       <c r="M54">
-        <v>122.283333333333</v>
+        <v>208.48333333333301</v>
       </c>
       <c r="N54">
-        <v>132.85</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="P54">
-        <v>120.9</v>
+        <v>200.9</v>
       </c>
       <c r="Q54">
-        <v>137.56666666666601</v>
+        <v>42.7</v>
       </c>
       <c r="S54">
-        <v>146.31666666666601</v>
+        <v>106.916666666666</v>
       </c>
       <c r="T54">
-        <v>116.35</v>
+        <v>147.75</v>
       </c>
       <c r="V54">
-        <v>113.716666666666</v>
+        <v>114.61666666666601</v>
       </c>
       <c r="W54">
-        <v>145.21666666666599</v>
+        <v>136.583333333333</v>
       </c>
       <c r="Y54">
-        <v>132.4</v>
+        <v>157.016666666666</v>
       </c>
       <c r="Z54">
-        <v>125.333333333333</v>
+        <v>92.116666666666603</v>
       </c>
       <c r="AB54">
-        <v>184.45</v>
+        <v>127.216666666666</v>
       </c>
       <c r="AC54">
-        <v>72.016666666666595</v>
+        <v>125.85</v>
       </c>
     </row>
     <row r="55" spans="1:29">
       <c r="A55">
-        <v>95.5833333333333</v>
+        <v>122.833333333333</v>
       </c>
       <c r="B55">
-        <v>163.21666666666599</v>
+        <v>126.7</v>
       </c>
       <c r="D55">
-        <v>197.71666666666599</v>
+        <v>143.44999999999999</v>
       </c>
       <c r="E55">
-        <v>57.016666666666602</v>
+        <v>114.016666666666</v>
       </c>
       <c r="G55">
-        <v>167.916666666666</v>
+        <v>150.85</v>
       </c>
       <c r="H55">
-        <v>96.483333333333306</v>
+        <v>102.35</v>
       </c>
       <c r="J55">
-        <v>153.933333333333</v>
+        <v>145.11666666666599</v>
       </c>
       <c r="K55">
-        <v>108.933333333333</v>
+        <v>107.35</v>
       </c>
       <c r="M55">
-        <v>124.15</v>
+        <v>208.46666666666599</v>
       </c>
       <c r="N55">
-        <v>137.916666666666</v>
+        <v>40.133333333333297</v>
       </c>
       <c r="P55">
-        <v>123.06666666666599</v>
+        <v>200.46666666666599</v>
       </c>
       <c r="Q55">
-        <v>140.53333333333299</v>
+        <v>48.066666666666599</v>
       </c>
       <c r="S55">
-        <v>145.46666666666599</v>
+        <v>107.466666666666</v>
       </c>
       <c r="T55">
-        <v>120.73333333333299</v>
+        <v>152.933333333333</v>
       </c>
       <c r="V55">
-        <v>117.283333333333</v>
+        <v>115.716666666666</v>
       </c>
       <c r="W55">
-        <v>147.516666666666</v>
+        <v>139.15</v>
       </c>
       <c r="Y55">
-        <v>134.016666666666</v>
+        <v>158.96666666666599</v>
       </c>
       <c r="Z55">
-        <v>128.916666666666</v>
+        <v>95.633333333333297</v>
       </c>
       <c r="AB55">
-        <v>187.916666666666</v>
+        <v>133.583333333333</v>
       </c>
       <c r="AC55">
-        <v>73.4166666666666</v>
+        <v>125.083333333333</v>
       </c>
     </row>
     <row r="56" spans="1:29">
       <c r="A56">
-        <v>97.116666666666603</v>
+        <v>124.7</v>
       </c>
       <c r="B56">
-        <v>167.21666666666599</v>
+        <v>133.96666666666599</v>
       </c>
       <c r="D56">
-        <v>199.833333333333</v>
+        <v>143.81666666666601</v>
       </c>
       <c r="E56">
-        <v>60.7</v>
+        <v>117.916666666666</v>
       </c>
       <c r="G56">
-        <v>167.016666666666</v>
+        <v>152.1</v>
       </c>
       <c r="H56">
-        <v>99.316666666666606</v>
+        <v>107.1</v>
       </c>
       <c r="J56">
-        <v>155.36666666666599</v>
+        <v>145.94999999999999</v>
       </c>
       <c r="K56">
-        <v>110.966666666666</v>
+        <v>111.11666666666601</v>
       </c>
       <c r="M56">
-        <v>124.95</v>
+        <v>209.03333333333299</v>
       </c>
       <c r="N56">
-        <v>142.38333333333301</v>
+        <v>44.5</v>
       </c>
       <c r="P56">
-        <v>125.083333333333</v>
+        <v>199.63333333333301</v>
       </c>
       <c r="Q56">
-        <v>142.78333333333299</v>
+        <v>52.3</v>
       </c>
       <c r="S56">
-        <v>145.98333333333301</v>
+        <v>107.716666666666</v>
       </c>
       <c r="T56">
-        <v>124.15</v>
+        <v>157.61666666666599</v>
       </c>
       <c r="V56">
-        <v>118.766666666666</v>
+        <v>117.416666666666</v>
       </c>
       <c r="W56">
-        <v>149.63333333333301</v>
+        <v>142.31666666666601</v>
       </c>
       <c r="Y56">
-        <v>135.46666666666599</v>
+        <v>159.766666666666</v>
       </c>
       <c r="Z56">
-        <v>133.4</v>
+        <v>98.5</v>
       </c>
       <c r="AB56">
-        <v>190.48333333333301</v>
+        <v>140.083333333333</v>
       </c>
       <c r="AC56">
-        <v>75.650000000000006</v>
+        <v>124.31666666666599</v>
       </c>
     </row>
     <row r="57" spans="1:29">
       <c r="A57">
-        <v>97.9</v>
+        <v>125.333333333333</v>
       </c>
       <c r="B57">
-        <v>172.23333333333301</v>
+        <v>137.86666666666599</v>
       </c>
       <c r="D57">
-        <v>202.23333333333301</v>
+        <v>145.63333333333301</v>
       </c>
       <c r="E57">
-        <v>63.5</v>
+        <v>121.5</v>
       </c>
       <c r="G57">
-        <v>167.266666666666</v>
+        <v>152.25</v>
       </c>
       <c r="H57">
-        <v>103.666666666666</v>
+        <v>111.81666666666599</v>
       </c>
       <c r="J57">
-        <v>159.61666666666599</v>
+        <v>146.416666666666</v>
       </c>
       <c r="K57">
-        <v>112.98333333333299</v>
+        <v>116.516666666666</v>
       </c>
       <c r="M57">
-        <v>125.9</v>
+        <v>208.28333333333299</v>
       </c>
       <c r="N57">
-        <v>146.30000000000001</v>
+        <v>51.116666666666603</v>
       </c>
       <c r="P57">
-        <v>127.7</v>
+        <v>199.21666666666599</v>
       </c>
       <c r="Q57">
-        <v>143.56666666666601</v>
+        <v>56.716666666666598</v>
       </c>
       <c r="S57">
-        <v>147.25</v>
+        <v>107.65</v>
       </c>
       <c r="T57">
-        <v>127.683333333333</v>
+        <v>162.28333333333299</v>
       </c>
       <c r="V57">
-        <v>122.583333333333</v>
+        <v>117.9</v>
       </c>
       <c r="W57">
-        <v>151.35</v>
+        <v>146.833333333333</v>
       </c>
       <c r="Y57">
-        <v>137.30000000000001</v>
+        <v>161.96666666666599</v>
       </c>
       <c r="Z57">
-        <v>136.23333333333301</v>
+        <v>102.23333333333299</v>
       </c>
       <c r="AB57">
-        <v>193.45</v>
+        <v>145.65</v>
       </c>
       <c r="AC57">
-        <v>77.75</v>
+        <v>124.083333333333</v>
       </c>
     </row>
     <row r="58" spans="1:29">
       <c r="A58">
-        <v>97.5</v>
+        <v>125.466666666666</v>
       </c>
       <c r="B58">
-        <v>177.36666666666599</v>
+        <v>141</v>
       </c>
       <c r="D58">
-        <v>204.7</v>
+        <v>146.46666666666599</v>
       </c>
       <c r="E58">
-        <v>67.900000000000006</v>
+        <v>126.133333333333</v>
       </c>
       <c r="G58">
-        <v>169.36666666666599</v>
+        <v>153.11666666666599</v>
       </c>
       <c r="H58">
-        <v>106.36666666666601</v>
+        <v>116.15</v>
       </c>
       <c r="J58">
-        <v>162.61666666666599</v>
+        <v>148.15</v>
       </c>
       <c r="K58">
-        <v>114.183333333333</v>
+        <v>121.183333333333</v>
       </c>
       <c r="M58">
-        <v>126.183333333333</v>
+        <v>207.71666666666599</v>
       </c>
       <c r="N58">
-        <v>151.55000000000001</v>
+        <v>56.816666666666599</v>
       </c>
       <c r="P58">
-        <v>129.80000000000001</v>
+        <v>200.53333333333299</v>
       </c>
       <c r="Q58">
-        <v>146.266666666666</v>
+        <v>61.4</v>
       </c>
       <c r="S58">
-        <v>149.30000000000001</v>
+        <v>108.61666666666601</v>
       </c>
       <c r="T58">
-        <v>130.9</v>
+        <v>165.71666666666599</v>
       </c>
       <c r="V58">
-        <v>125.133333333333</v>
+        <v>117.916666666666</v>
       </c>
       <c r="W58">
-        <v>153.933333333333</v>
+        <v>153.75</v>
       </c>
       <c r="Y58">
-        <v>138.13333333333301</v>
+        <v>162.48333333333301</v>
       </c>
       <c r="Z58">
-        <v>139.6</v>
+        <v>107.583333333333</v>
       </c>
       <c r="AB58">
-        <v>195.81666666666601</v>
+        <v>149.683333333333</v>
       </c>
       <c r="AC58">
-        <v>80.25</v>
+        <v>122.85</v>
       </c>
     </row>
     <row r="59" spans="1:29">
       <c r="A59">
-        <v>97.5833333333333</v>
+        <v>125.45</v>
       </c>
       <c r="B59">
-        <v>183.21666666666599</v>
+        <v>146.416666666666</v>
       </c>
       <c r="D59">
-        <v>205.31666666666601</v>
+        <v>147.31666666666601</v>
       </c>
       <c r="E59">
-        <v>71.883333333333297</v>
+        <v>128.61666666666599</v>
       </c>
       <c r="G59">
-        <v>170.23333333333301</v>
+        <v>153.25</v>
       </c>
       <c r="H59">
-        <v>110.166666666666</v>
+        <v>121.683333333333</v>
       </c>
       <c r="J59">
-        <v>164.1</v>
+        <v>149.61666666666599</v>
       </c>
       <c r="K59">
-        <v>116.633333333333</v>
+        <v>125.183333333333</v>
       </c>
       <c r="M59">
-        <v>127.283333333333</v>
+        <v>207.166666666666</v>
       </c>
       <c r="N59">
-        <v>156.71666666666599</v>
+        <v>64.366666666666603</v>
       </c>
       <c r="P59">
-        <v>132.03333333333299</v>
+        <v>200.61666666666599</v>
       </c>
       <c r="Q59">
-        <v>149.03333333333299</v>
+        <v>66.5833333333333</v>
       </c>
       <c r="S59">
-        <v>152.166666666666</v>
+        <v>109.55</v>
       </c>
       <c r="T59">
-        <v>133.166666666666</v>
+        <v>169.183333333333</v>
       </c>
       <c r="V59">
-        <v>128.78333333333299</v>
+        <v>117.016666666666</v>
       </c>
       <c r="W59">
-        <v>155.21666666666599</v>
+        <v>157.916666666666</v>
       </c>
       <c r="Y59">
-        <v>140.21666666666599</v>
+        <v>161.96666666666599</v>
       </c>
       <c r="Z59">
-        <v>143.05000000000001</v>
+        <v>112.5</v>
       </c>
       <c r="AB59">
-        <v>198.766666666666</v>
+        <v>154.69999999999999</v>
       </c>
       <c r="AC59">
-        <v>83.366666666666603</v>
+        <v>121.7</v>
       </c>
     </row>
     <row r="60" spans="1:29">
       <c r="A60">
-        <v>97.316666666666606</v>
+        <v>125.633333333333</v>
       </c>
       <c r="B60">
-        <v>187.683333333333</v>
+        <v>150.30000000000001</v>
       </c>
       <c r="D60">
-        <v>205.8</v>
+        <v>149.11666666666599</v>
       </c>
       <c r="E60">
-        <v>76.133333333333297</v>
+        <v>130.48333333333301</v>
       </c>
       <c r="G60">
-        <v>172.96666666666599</v>
+        <v>153.63333333333301</v>
       </c>
       <c r="H60">
-        <v>113.833333333333</v>
+        <v>125.433333333333</v>
       </c>
       <c r="J60">
-        <v>167.7</v>
+        <v>151.583333333333</v>
       </c>
       <c r="K60">
-        <v>118.1</v>
+        <v>129.81666666666601</v>
       </c>
       <c r="M60">
-        <v>126.716666666666</v>
+        <v>204.916666666666</v>
       </c>
       <c r="N60">
-        <v>162.55000000000001</v>
+        <v>71.483333333333306</v>
       </c>
       <c r="P60">
-        <v>134.1</v>
+        <v>201.183333333333</v>
       </c>
       <c r="Q60">
-        <v>151.36666666666599</v>
+        <v>71.616666666666603</v>
       </c>
       <c r="S60">
-        <v>152.94999999999999</v>
+        <v>113.216666666666</v>
       </c>
       <c r="T60">
-        <v>134.85</v>
+        <v>170.916666666666</v>
       </c>
       <c r="V60">
-        <v>131.083333333333</v>
+        <v>116.283333333333</v>
       </c>
       <c r="W60">
-        <v>157.71666666666599</v>
+        <v>163.98333333333301</v>
       </c>
       <c r="Y60">
-        <v>143.35</v>
+        <v>161.766666666666</v>
       </c>
       <c r="Z60">
-        <v>146.183333333333</v>
+        <v>116.766666666666</v>
       </c>
       <c r="AB60">
-        <v>201.4</v>
+        <v>158.31666666666601</v>
       </c>
       <c r="AC60">
-        <v>86.6666666666666</v>
+        <v>122.75</v>
       </c>
     </row>
     <row r="61" spans="1:29">
       <c r="A61">
-        <v>97.866666666666603</v>
+        <v>128.21666666666599</v>
       </c>
       <c r="B61">
-        <v>193.333333333333</v>
+        <v>153.65</v>
       </c>
       <c r="D61">
-        <v>206.46666666666599</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="E61">
-        <v>81.400000000000006</v>
+        <v>132.13333333333301</v>
       </c>
       <c r="G61">
-        <v>175.3</v>
+        <v>154.23333333333301</v>
       </c>
       <c r="H61">
-        <v>117.033333333333</v>
+        <v>128.63333333333301</v>
       </c>
       <c r="J61">
-        <v>170.333333333333</v>
+        <v>152.88333333333301</v>
       </c>
       <c r="K61">
-        <v>120.266666666666</v>
+        <v>134.31666666666601</v>
       </c>
       <c r="M61">
-        <v>126.36666666666601</v>
+        <v>203.166666666666</v>
       </c>
       <c r="N61">
-        <v>167.36666666666599</v>
+        <v>77.033333333333303</v>
       </c>
       <c r="P61">
-        <v>136.833333333333</v>
+        <v>201.933333333333</v>
       </c>
       <c r="Q61">
-        <v>154.833333333333</v>
+        <v>77.066666666666606</v>
       </c>
       <c r="S61">
-        <v>156.03333333333299</v>
+        <v>115.11666666666601</v>
       </c>
       <c r="T61">
-        <v>136.36666666666599</v>
+        <v>173.88333333333301</v>
       </c>
       <c r="V61">
-        <v>133.56666666666601</v>
+        <v>116.4</v>
       </c>
       <c r="W61">
-        <v>159.23333333333301</v>
+        <v>168.86666666666599</v>
       </c>
       <c r="Y61">
-        <v>144.98333333333301</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="Z61">
-        <v>149.683333333333</v>
+        <v>122.9</v>
       </c>
       <c r="AB61">
-        <v>203.53333333333299</v>
+        <v>162.38333333333301</v>
       </c>
       <c r="AC61">
-        <v>88.8</v>
+        <v>123.883333333333</v>
       </c>
     </row>
     <row r="62" spans="1:29">
       <c r="A62">
-        <v>98.466666666666598</v>
+        <v>129.666666666666</v>
       </c>
       <c r="B62">
-        <v>197.13333333333301</v>
+        <v>157.4</v>
       </c>
       <c r="D62">
-        <v>207.36666666666599</v>
+        <v>156.416666666666</v>
       </c>
       <c r="E62">
-        <v>86.766666666666595</v>
+        <v>134.11666666666599</v>
       </c>
       <c r="G62">
-        <v>179.1</v>
+        <v>155.433333333333</v>
       </c>
       <c r="H62">
-        <v>118.9</v>
+        <v>133.833333333333</v>
       </c>
       <c r="J62">
-        <v>174.63333333333301</v>
+        <v>154.69999999999999</v>
       </c>
       <c r="K62">
-        <v>122.7</v>
+        <v>138.63333333333301</v>
       </c>
       <c r="M62">
-        <v>126.15</v>
+        <v>200.63333333333301</v>
       </c>
       <c r="N62">
-        <v>171.78333333333299</v>
+        <v>83.033333333333303</v>
       </c>
       <c r="P62">
-        <v>138.81666666666601</v>
+        <v>202.23333333333301</v>
       </c>
       <c r="Q62">
-        <v>159.25</v>
+        <v>81.7</v>
       </c>
       <c r="S62">
-        <v>160.433333333333</v>
+        <v>116.383333333333</v>
       </c>
       <c r="T62">
-        <v>137.166666666666</v>
+        <v>177.55</v>
       </c>
       <c r="V62">
-        <v>134.94999999999999</v>
+        <v>116.98333333333299</v>
       </c>
       <c r="W62">
-        <v>160.44999999999999</v>
+        <v>174.81666666666601</v>
       </c>
       <c r="Y62">
-        <v>147.73333333333301</v>
+        <v>160.96666666666599</v>
       </c>
       <c r="Z62">
-        <v>151.933333333333</v>
+        <v>128.30000000000001</v>
       </c>
       <c r="AB62">
-        <v>206.583333333333</v>
+        <v>166.86666666666599</v>
       </c>
       <c r="AC62">
-        <v>92.15</v>
+        <v>125.933333333333</v>
       </c>
     </row>
     <row r="63" spans="1:29">
       <c r="A63">
-        <v>98.866666666666603</v>
+        <v>132.71666666666599</v>
       </c>
       <c r="B63">
-        <v>202</v>
+        <v>161.016666666666</v>
       </c>
       <c r="D63">
-        <v>208.05</v>
+        <v>158.96666666666599</v>
       </c>
       <c r="E63">
-        <v>92.616666666666603</v>
+        <v>137.36666666666599</v>
       </c>
       <c r="G63">
-        <v>181.7</v>
+        <v>156.03333333333299</v>
       </c>
       <c r="H63">
-        <v>122.166666666666</v>
+        <v>138.1</v>
       </c>
       <c r="J63">
-        <v>177.933333333333</v>
+        <v>157.6</v>
       </c>
       <c r="K63">
-        <v>124.06666666666599</v>
+        <v>142.6</v>
       </c>
       <c r="M63">
-        <v>127.31666666666599</v>
+        <v>199.05</v>
       </c>
       <c r="N63">
-        <v>175.35</v>
+        <v>89.483333333333306</v>
       </c>
       <c r="P63">
-        <v>141.333333333333</v>
+        <v>202.9</v>
       </c>
       <c r="Q63">
-        <v>161.4</v>
+        <v>86.966666666666598</v>
       </c>
       <c r="S63">
-        <v>162.61666666666599</v>
+        <v>117.7</v>
       </c>
       <c r="T63">
-        <v>136.85</v>
+        <v>180.1</v>
       </c>
       <c r="V63">
-        <v>135.73333333333301</v>
+        <v>117.25</v>
       </c>
       <c r="W63">
-        <v>163.46666666666599</v>
+        <v>180.15</v>
       </c>
       <c r="Y63">
-        <v>151.06666666666601</v>
+        <v>161.38333333333301</v>
       </c>
       <c r="Z63">
-        <v>155.46666666666599</v>
+        <v>133.21666666666599</v>
       </c>
       <c r="AB63">
-        <v>206.96666666666599</v>
+        <v>170.416666666666</v>
       </c>
       <c r="AC63">
-        <v>95.633333333333297</v>
+        <v>127.783333333333</v>
       </c>
     </row>
     <row r="64" spans="1:29">
       <c r="A64">
-        <v>97.966666666666598</v>
+        <v>135.46666666666599</v>
       </c>
       <c r="B64">
-        <v>207.5</v>
+        <v>166.13333333333301</v>
       </c>
       <c r="D64">
-        <v>208.016666666666</v>
+        <v>161.19999999999999</v>
       </c>
       <c r="E64">
-        <v>99.05</v>
+        <v>141.266666666666</v>
       </c>
       <c r="G64">
-        <v>184.88333333333301</v>
+        <v>156.06666666666601</v>
       </c>
       <c r="H64">
-        <v>124.516666666666</v>
+        <v>143.06666666666601</v>
       </c>
       <c r="J64">
-        <v>180.96666666666599</v>
+        <v>160.31666666666601</v>
       </c>
       <c r="K64">
-        <v>126.36666666666601</v>
+        <v>145.75</v>
       </c>
       <c r="M64">
-        <v>128.06666666666601</v>
+        <v>198.28333333333299</v>
       </c>
       <c r="N64">
-        <v>179.8</v>
+        <v>95.9166666666666</v>
       </c>
       <c r="P64">
-        <v>143.166666666666</v>
+        <v>202.86666666666599</v>
       </c>
       <c r="Q64">
-        <v>163.36666666666599</v>
+        <v>91.533333333333303</v>
       </c>
       <c r="S64">
-        <v>166.766666666666</v>
+        <v>121.583333333333</v>
       </c>
       <c r="T64">
-        <v>137.69999999999999</v>
+        <v>181.48333333333301</v>
       </c>
       <c r="V64">
-        <v>138.583333333333</v>
+        <v>118.6</v>
       </c>
       <c r="W64">
-        <v>165.683333333333</v>
+        <v>184.933333333333</v>
       </c>
       <c r="Y64">
-        <v>153.833333333333</v>
+        <v>161.15</v>
       </c>
       <c r="Z64">
-        <v>157.03333333333299</v>
+        <v>140.183333333333</v>
       </c>
       <c r="AB64">
-        <v>207.48333333333301</v>
+        <v>172.81666666666601</v>
       </c>
       <c r="AC64">
-        <v>98.383333333333297</v>
+        <v>129.85</v>
       </c>
     </row>
     <row r="65" spans="1:29">
       <c r="A65">
-        <v>98.1</v>
+        <v>141.416666666666</v>
       </c>
       <c r="B65">
-        <v>212.1</v>
+        <v>167.78333333333299</v>
       </c>
       <c r="D65">
-        <v>207.933333333333</v>
+        <v>163.766666666666</v>
       </c>
       <c r="E65">
-        <v>105.266666666666</v>
+        <v>144.166666666666</v>
       </c>
       <c r="G65">
-        <v>188.55</v>
+        <v>155.516666666666</v>
       </c>
       <c r="H65">
-        <v>125.783333333333</v>
+        <v>146.416666666666</v>
       </c>
       <c r="J65">
-        <v>184.55</v>
+        <v>161.71666666666599</v>
       </c>
       <c r="K65">
-        <v>128.44999999999999</v>
+        <v>148.21666666666599</v>
       </c>
       <c r="M65">
-        <v>127.783333333333</v>
+        <v>196.88333333333301</v>
       </c>
       <c r="N65">
-        <v>184.61666666666599</v>
+        <v>102.98333333333299</v>
       </c>
       <c r="P65">
-        <v>146.916666666666</v>
+        <v>202.1</v>
       </c>
       <c r="Q65">
-        <v>165.75</v>
+        <v>97.566666666666606</v>
       </c>
       <c r="S65">
-        <v>168.36666666666599</v>
+        <v>125.56666666666599</v>
       </c>
       <c r="T65">
-        <v>141.63333333333301</v>
+        <v>182.833333333333</v>
       </c>
       <c r="V65">
-        <v>143.166666666666</v>
+        <v>120.2</v>
       </c>
       <c r="W65">
-        <v>167.5</v>
+        <v>187.86666666666599</v>
       </c>
       <c r="Y65">
-        <v>156.78333333333299</v>
+        <v>161.55000000000001</v>
       </c>
       <c r="Z65">
-        <v>159.416666666666</v>
+        <v>146.516666666666</v>
       </c>
       <c r="AB65">
-        <v>207.11666666666599</v>
+        <v>175.31666666666601</v>
       </c>
       <c r="AC65">
-        <v>102.416666666666</v>
+        <v>131.75</v>
       </c>
     </row>
     <row r="66" spans="1:29">
       <c r="A66">
-        <v>97.95</v>
+        <v>144.28333333333299</v>
       </c>
       <c r="B66">
-        <v>215.65</v>
+        <v>169.85</v>
       </c>
       <c r="D66">
-        <v>208.13333333333301</v>
+        <v>166.516666666666</v>
       </c>
       <c r="E66">
-        <v>109.86666666666601</v>
+        <v>146.75</v>
       </c>
       <c r="G66">
-        <v>192.73333333333301</v>
+        <v>155.94999999999999</v>
       </c>
       <c r="H66">
-        <v>126.8</v>
+        <v>152.183333333333</v>
       </c>
       <c r="J66">
-        <v>187.766666666666</v>
+        <v>162.75</v>
       </c>
       <c r="K66">
-        <v>128.63333333333301</v>
+        <v>150.05000000000001</v>
       </c>
       <c r="M66">
-        <v>128.35</v>
+        <v>197.05</v>
       </c>
       <c r="N66">
-        <v>187.916666666666</v>
+        <v>108.416666666666</v>
       </c>
       <c r="P66">
-        <v>150.11666666666599</v>
+        <v>201.86666666666599</v>
       </c>
       <c r="Q66">
-        <v>166.683333333333</v>
+        <v>102.666666666666</v>
       </c>
       <c r="S66">
-        <v>169.416666666666</v>
+        <v>129.78333333333299</v>
       </c>
       <c r="T66">
-        <v>146.05000000000001</v>
+        <v>184.88333333333301</v>
       </c>
       <c r="V66">
-        <v>148.083333333333</v>
+        <v>120.86666666666601</v>
       </c>
       <c r="W66">
-        <v>167.98333333333301</v>
+        <v>191</v>
       </c>
       <c r="Y66">
-        <v>160.11666666666599</v>
+        <v>160.4</v>
       </c>
       <c r="Z66">
-        <v>160.48333333333301</v>
+        <v>152.86666666666599</v>
       </c>
       <c r="AB66">
-        <v>207.63333333333301</v>
+        <v>178.23333333333301</v>
       </c>
       <c r="AC66">
-        <v>108.833333333333</v>
+        <v>134.766666666666</v>
       </c>
     </row>
     <row r="67" spans="1:29">
       <c r="A67">
-        <v>100.05</v>
+        <v>146.666666666666</v>
       </c>
       <c r="B67">
-        <v>218.55</v>
+        <v>170.8</v>
       </c>
       <c r="D67">
-        <v>206.683333333333</v>
+        <v>169.71666666666599</v>
       </c>
       <c r="E67">
-        <v>116.716666666666</v>
+        <v>148.416666666666</v>
       </c>
       <c r="G67">
-        <v>196.6</v>
+        <v>156.81666666666601</v>
       </c>
       <c r="H67">
-        <v>128.6</v>
+        <v>157.516666666666</v>
       </c>
       <c r="J67">
-        <v>192.11666666666599</v>
+        <v>168.45</v>
       </c>
       <c r="K67">
-        <v>128.94999999999999</v>
+        <v>151.75</v>
       </c>
       <c r="M67">
-        <v>129.03333333333299</v>
+        <v>197.666666666666</v>
       </c>
       <c r="N67">
-        <v>193.03333333333299</v>
+        <v>112.8</v>
       </c>
       <c r="P67">
-        <v>155.516666666666</v>
+        <v>202.7</v>
       </c>
       <c r="Q67">
-        <v>167.683333333333</v>
+        <v>106.23333333333299</v>
       </c>
       <c r="S67">
-        <v>171.55</v>
+        <v>132.766666666666</v>
       </c>
       <c r="T67">
-        <v>148.916666666666</v>
+        <v>186.56666666666601</v>
       </c>
       <c r="V67">
-        <v>152.46666666666599</v>
+        <v>122.1</v>
       </c>
       <c r="W67">
-        <v>169.266666666666</v>
+        <v>194.5</v>
       </c>
       <c r="Y67">
-        <v>163.666666666666</v>
+        <v>159.433333333333</v>
       </c>
       <c r="Z67">
-        <v>161.4</v>
+        <v>157.5</v>
       </c>
       <c r="AB67">
-        <v>208.03333333333299</v>
+        <v>182</v>
       </c>
       <c r="AC67">
-        <v>113.1</v>
+        <v>137.666666666666</v>
       </c>
     </row>
     <row r="68" spans="1:29">
       <c r="A68">
-        <v>101.833333333333</v>
+        <v>150.48333333333301</v>
       </c>
       <c r="B68">
-        <v>219.63333333333301</v>
+        <v>173.25</v>
       </c>
       <c r="D68">
-        <v>205.13333333333301</v>
+        <v>172.36666666666599</v>
       </c>
       <c r="E68">
-        <v>123.666666666666</v>
+        <v>150.69999999999999</v>
       </c>
       <c r="G68">
-        <v>201.183333333333</v>
+        <v>158.766666666666</v>
       </c>
       <c r="H68">
-        <v>130.48333333333301</v>
+        <v>161.9</v>
       </c>
       <c r="J68">
-        <v>196.56666666666601</v>
+        <v>170.28333333333299</v>
       </c>
       <c r="K68">
-        <v>129.9</v>
+        <v>152.516666666666</v>
       </c>
       <c r="M68">
-        <v>130.06666666666601</v>
+        <v>201.2</v>
       </c>
       <c r="N68">
-        <v>196.666666666666</v>
+        <v>115.466666666666</v>
       </c>
       <c r="P68">
-        <v>160.15</v>
+        <v>204.65</v>
       </c>
       <c r="Q68">
-        <v>168.31666666666601</v>
+        <v>109.683333333333</v>
       </c>
       <c r="S68">
-        <v>172.46666666666599</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="T68">
-        <v>153</v>
+        <v>188.766666666666</v>
       </c>
       <c r="V68">
-        <v>158.73333333333301</v>
+        <v>123.31666666666599</v>
       </c>
       <c r="W68">
-        <v>170</v>
+        <v>198.416666666666</v>
       </c>
       <c r="Y68">
-        <v>166.53333333333299</v>
+        <v>161.35</v>
       </c>
       <c r="Z68">
-        <v>163.266666666666</v>
+        <v>161.78333333333299</v>
       </c>
       <c r="AB68">
-        <v>208.71666666666599</v>
+        <v>185.36666666666599</v>
       </c>
       <c r="AC68">
-        <v>115.216666666666</v>
+        <v>139.5</v>
       </c>
     </row>
     <row r="69" spans="1:29">
       <c r="A69">
-        <v>105.86666666666601</v>
+        <v>153.78333333333299</v>
       </c>
       <c r="B69">
-        <v>219.2</v>
+        <v>175.683333333333</v>
       </c>
       <c r="D69">
-        <v>203.61666666666599</v>
+        <v>176.083333333333</v>
       </c>
       <c r="E69">
-        <v>132.31666666666601</v>
+        <v>153.516666666666</v>
       </c>
       <c r="G69">
-        <v>202.45</v>
+        <v>159.266666666666</v>
       </c>
       <c r="H69">
-        <v>132.21666666666599</v>
+        <v>166.666666666666</v>
       </c>
       <c r="J69">
-        <v>199.71666666666599</v>
+        <v>173.35</v>
       </c>
       <c r="K69">
-        <v>131.75</v>
+        <v>154.25</v>
       </c>
       <c r="M69">
-        <v>132.44999999999999</v>
+        <v>204.25</v>
       </c>
       <c r="N69">
-        <v>199.88333333333301</v>
+        <v>117.15</v>
       </c>
       <c r="P69">
-        <v>163.433333333333</v>
+        <v>206.46666666666599</v>
       </c>
       <c r="Q69">
-        <v>169.166666666666</v>
+        <v>112.133333333333</v>
       </c>
       <c r="S69">
-        <v>173.65</v>
+        <v>141.38333333333301</v>
       </c>
       <c r="T69">
-        <v>156.61666666666599</v>
+        <v>189.48333333333301</v>
       </c>
       <c r="V69">
-        <v>163.4</v>
+        <v>125.3</v>
       </c>
       <c r="W69">
-        <v>171.73333333333301</v>
+        <v>200.9</v>
       </c>
       <c r="Y69">
-        <v>169.31666666666601</v>
+        <v>164.3</v>
       </c>
       <c r="Z69">
-        <v>166.88333333333301</v>
+        <v>165.166666666666</v>
       </c>
       <c r="AB69">
-        <v>208.63333333333301</v>
+        <v>187.6</v>
       </c>
       <c r="AC69">
-        <v>122.23333333333299</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:29">
       <c r="A70">
-        <v>109.333333333333</v>
+        <v>157.75</v>
       </c>
       <c r="B70">
-        <v>218.13333333333301</v>
+        <v>177.916666666666</v>
       </c>
       <c r="D70">
-        <v>201.9</v>
+        <v>181.05</v>
       </c>
       <c r="E70">
-        <v>140.23333333333301</v>
+        <v>154.416666666666</v>
       </c>
       <c r="G70">
-        <v>204.35</v>
+        <v>161.05000000000001</v>
       </c>
       <c r="H70">
-        <v>135.85</v>
+        <v>171.28333333333299</v>
       </c>
       <c r="J70">
-        <v>201.516666666666</v>
+        <v>175.833333333333</v>
       </c>
       <c r="K70">
-        <v>134.016666666666</v>
+        <v>157.63333333333301</v>
       </c>
       <c r="M70">
-        <v>134.85</v>
+        <v>207.2</v>
       </c>
       <c r="N70">
-        <v>200.81666666666601</v>
+        <v>119.86666666666601</v>
       </c>
       <c r="P70">
-        <v>166.833333333333</v>
+        <v>210.15</v>
       </c>
       <c r="Q70">
-        <v>172.766666666666</v>
+        <v>113.85</v>
       </c>
       <c r="S70">
-        <v>174.916666666666</v>
+        <v>144.55000000000001</v>
       </c>
       <c r="T70">
-        <v>163.016666666666</v>
+        <v>191.11666666666599</v>
       </c>
       <c r="V70">
-        <v>168.71666666666599</v>
+        <v>126.666666666666</v>
       </c>
       <c r="W70">
-        <v>172.28333333333299</v>
+        <v>203.46666666666599</v>
       </c>
       <c r="Y70">
-        <v>171.31666666666601</v>
+        <v>165.48333333333301</v>
       </c>
       <c r="Z70">
-        <v>169.95</v>
+        <v>168.45</v>
       </c>
       <c r="AB70">
-        <v>210.03333333333299</v>
+        <v>190.016666666666</v>
       </c>
       <c r="AC70">
-        <v>126.23333333333299</v>
+        <v>143.78333333333299</v>
       </c>
     </row>
     <row r="71" spans="1:29">
       <c r="A71">
-        <v>116.433333333333</v>
+        <v>161.44999999999999</v>
       </c>
       <c r="B71">
-        <v>217.766666666666</v>
+        <v>179.21666666666599</v>
       </c>
       <c r="D71">
-        <v>199.75</v>
+        <v>185.86666666666599</v>
       </c>
       <c r="E71">
-        <v>146.78333333333299</v>
+        <v>155.86666666666599</v>
       </c>
       <c r="G71">
-        <v>205.36666666666599</v>
+        <v>165.78333333333299</v>
       </c>
       <c r="H71">
-        <v>138.30000000000001</v>
+        <v>173.81666666666601</v>
       </c>
       <c r="J71">
-        <v>204.516666666666</v>
+        <v>178.2</v>
       </c>
       <c r="K71">
-        <v>137.083333333333</v>
+        <v>162.53333333333299</v>
       </c>
       <c r="M71">
-        <v>138.85</v>
+        <v>210.06666666666601</v>
       </c>
       <c r="N71">
-        <v>202.416666666666</v>
+        <v>120.86666666666601</v>
       </c>
       <c r="P71">
-        <v>169.166666666666</v>
+        <v>212.36666666666599</v>
       </c>
       <c r="Q71">
-        <v>176.7</v>
+        <v>115.033333333333</v>
       </c>
       <c r="S71">
-        <v>175.333333333333</v>
+        <v>148.25</v>
       </c>
       <c r="T71">
-        <v>167.2</v>
+        <v>193.35</v>
       </c>
       <c r="V71">
-        <v>174.78333333333299</v>
+        <v>128.4</v>
       </c>
       <c r="W71">
-        <v>172.48333333333301</v>
+        <v>206</v>
       </c>
       <c r="Y71">
-        <v>175.15</v>
+        <v>167.96666666666599</v>
       </c>
       <c r="Z71">
-        <v>172.31666666666601</v>
+        <v>171.56666666666601</v>
       </c>
       <c r="AB71">
-        <v>210.86666666666599</v>
+        <v>191.48333333333301</v>
       </c>
       <c r="AC71">
-        <v>130</v>
+        <v>147.44999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
       <c r="A72">
-        <v>123.15</v>
+        <v>163.683333333333</v>
       </c>
       <c r="B72">
-        <v>216.25</v>
+        <v>181.78333333333299</v>
       </c>
       <c r="D72">
-        <v>198.46666666666599</v>
+        <v>188.683333333333</v>
       </c>
       <c r="E72">
-        <v>152.73333333333301</v>
+        <v>157.25</v>
       </c>
       <c r="G72">
-        <v>206.88333333333301</v>
+        <v>168.083333333333</v>
       </c>
       <c r="H72">
-        <v>141.583333333333</v>
+        <v>176.583333333333</v>
       </c>
       <c r="J72">
-        <v>207.13333333333301</v>
+        <v>180.1</v>
       </c>
       <c r="K72">
-        <v>139.53333333333299</v>
+        <v>167.56666666666601</v>
       </c>
       <c r="M72">
-        <v>144.683333333333</v>
+        <v>212.166666666666</v>
       </c>
       <c r="N72">
-        <v>204.38333333333301</v>
+        <v>121.966666666666</v>
       </c>
       <c r="P72">
-        <v>170.583333333333</v>
+        <v>214.3</v>
       </c>
       <c r="Q72">
-        <v>179.88333333333301</v>
+        <v>118.36666666666601</v>
       </c>
       <c r="S72">
-        <v>176.583333333333</v>
+        <v>150.516666666666</v>
       </c>
       <c r="T72">
-        <v>173.016666666666</v>
+        <v>194.683333333333</v>
       </c>
       <c r="V72">
-        <v>179.11666666666599</v>
+        <v>132.083333333333</v>
       </c>
       <c r="W72">
-        <v>172.61666666666599</v>
+        <v>207.98333333333301</v>
       </c>
       <c r="Y72">
-        <v>177.416666666666</v>
+        <v>169.666666666666</v>
       </c>
       <c r="Z72">
-        <v>175.05</v>
+        <v>175.4</v>
       </c>
       <c r="AB72">
-        <v>210.7</v>
+        <v>192.15</v>
       </c>
       <c r="AC72">
-        <v>135.433333333333</v>
+        <v>151.85</v>
       </c>
     </row>
     <row r="73" spans="1:29">
       <c r="A73">
-        <v>130.6</v>
+        <v>165.95</v>
       </c>
       <c r="B73">
-        <v>215.2</v>
+        <v>183.71666666666599</v>
       </c>
       <c r="D73">
-        <v>198.25</v>
+        <v>192.416666666666</v>
       </c>
       <c r="E73">
-        <v>157.94999999999999</v>
+        <v>158.31666666666601</v>
       </c>
       <c r="G73">
-        <v>207.86666666666599</v>
+        <v>170.35</v>
       </c>
       <c r="H73">
-        <v>145.333333333333</v>
+        <v>179.85</v>
       </c>
       <c r="J73">
-        <v>207.45</v>
+        <v>182.28333333333299</v>
       </c>
       <c r="K73">
-        <v>144.94999999999999</v>
+        <v>171.516666666666</v>
       </c>
       <c r="M73">
-        <v>151.06666666666601</v>
+        <v>212.86666666666599</v>
       </c>
       <c r="N73">
-        <v>205.666666666666</v>
+        <v>124.666666666666</v>
       </c>
       <c r="P73">
-        <v>171.53333333333299</v>
+        <v>215</v>
       </c>
       <c r="Q73">
-        <v>181</v>
+        <v>121.86666666666601</v>
       </c>
       <c r="S73">
-        <v>175.53333333333299</v>
+        <v>155.73333333333301</v>
       </c>
       <c r="T73">
-        <v>178.46666666666599</v>
+        <v>195.266666666666</v>
       </c>
       <c r="V73">
-        <v>184.46666666666599</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="W73">
-        <v>172.266666666666</v>
+        <v>210.266666666666</v>
       </c>
       <c r="Y73">
-        <v>178.28333333333299</v>
+        <v>170.65</v>
       </c>
       <c r="Z73">
-        <v>178.25</v>
+        <v>179.083333333333</v>
       </c>
       <c r="AB73">
-        <v>210.73333333333301</v>
+        <v>193.683333333333</v>
       </c>
       <c r="AC73">
-        <v>140.13333333333301</v>
+        <v>155.25</v>
       </c>
     </row>
     <row r="74" spans="1:29">
       <c r="A74">
-        <v>137.85</v>
+        <v>169</v>
       </c>
       <c r="B74">
-        <v>214.083333333333</v>
+        <v>185.333333333333</v>
       </c>
       <c r="D74">
-        <v>197.06666666666601</v>
+        <v>193.583333333333</v>
       </c>
       <c r="E74">
-        <v>163.46666666666599</v>
+        <v>160.94999999999999</v>
       </c>
       <c r="G74">
-        <v>207.583333333333</v>
+        <v>173.05</v>
       </c>
       <c r="H74">
-        <v>151.48333333333301</v>
+        <v>181.75</v>
       </c>
       <c r="J74">
-        <v>208.2</v>
+        <v>184.31666666666601</v>
       </c>
       <c r="K74">
-        <v>148.86666666666599</v>
+        <v>175.683333333333</v>
       </c>
       <c r="M74">
-        <v>157.516666666666</v>
+        <v>212.933333333333</v>
       </c>
       <c r="N74">
-        <v>204.75</v>
+        <v>129.46666666666599</v>
       </c>
       <c r="P74">
-        <v>173.333333333333</v>
+        <v>213.11666666666599</v>
       </c>
       <c r="Q74">
-        <v>183.13333333333301</v>
+        <v>126.55</v>
       </c>
       <c r="S74">
-        <v>175.833333333333</v>
+        <v>162.23333333333301</v>
       </c>
       <c r="T74">
-        <v>183.1</v>
+        <v>195.36666666666599</v>
       </c>
       <c r="V74">
-        <v>189.266666666666</v>
+        <v>141.333333333333</v>
       </c>
       <c r="W74">
-        <v>172</v>
+        <v>211.933333333333</v>
       </c>
       <c r="Y74">
-        <v>180.083333333333</v>
+        <v>174.4</v>
       </c>
       <c r="Z74">
-        <v>180.05</v>
+        <v>181.933333333333</v>
       </c>
       <c r="AB74">
-        <v>210.45</v>
+        <v>194.11666666666599</v>
       </c>
       <c r="AC74">
-        <v>145.28333333333299</v>
+        <v>161.016666666666</v>
       </c>
     </row>
     <row r="75" spans="1:29">
       <c r="A75">
-        <v>148.56666666666601</v>
+        <v>172.766666666666</v>
       </c>
       <c r="B75">
-        <v>212.833333333333</v>
+        <v>187.166666666666</v>
       </c>
       <c r="D75">
-        <v>197.61666666666599</v>
+        <v>196.36666666666599</v>
       </c>
       <c r="E75">
-        <v>169.65</v>
+        <v>163.166666666666</v>
       </c>
       <c r="G75">
-        <v>206.666666666666</v>
+        <v>176.25</v>
       </c>
       <c r="H75">
-        <v>157.19999999999999</v>
+        <v>182.75</v>
       </c>
       <c r="J75">
-        <v>208.266666666666</v>
+        <v>185.11666666666599</v>
       </c>
       <c r="K75">
-        <v>153.666666666666</v>
+        <v>179.55</v>
       </c>
       <c r="M75">
-        <v>162.25</v>
+        <v>212.5</v>
       </c>
       <c r="N75">
-        <v>204.55</v>
+        <v>138.1</v>
       </c>
       <c r="P75">
-        <v>178.583333333333</v>
+        <v>211.55</v>
       </c>
       <c r="Q75">
-        <v>184.21666666666599</v>
+        <v>134.183333333333</v>
       </c>
       <c r="S75">
-        <v>177</v>
+        <v>165.78333333333299</v>
       </c>
       <c r="T75">
-        <v>187.2</v>
+        <v>196.21666666666599</v>
       </c>
       <c r="V75">
-        <v>193.56666666666601</v>
+        <v>145.166666666666</v>
       </c>
       <c r="W75">
-        <v>174.1</v>
+        <v>211.96666666666599</v>
       </c>
       <c r="Y75">
-        <v>183.1</v>
+        <v>179.03333333333299</v>
       </c>
       <c r="Z75">
-        <v>181.833333333333</v>
+        <v>183.9</v>
       </c>
       <c r="AB75">
-        <v>209.416666666666</v>
+        <v>194.23333333333301</v>
       </c>
       <c r="AC75">
-        <v>150.78333333333299</v>
+        <v>167.23333333333301</v>
       </c>
     </row>
     <row r="76" spans="1:29">
       <c r="A76">
-        <v>158.5</v>
+        <v>176.35</v>
       </c>
       <c r="B76">
-        <v>211.166666666666</v>
+        <v>188.516666666666</v>
       </c>
       <c r="D76">
-        <v>196.666666666666</v>
+        <v>200.23333333333301</v>
       </c>
       <c r="E76">
-        <v>175.73333333333301</v>
+        <v>165.36666666666599</v>
       </c>
       <c r="G76">
-        <v>206.95</v>
+        <v>178.65</v>
       </c>
       <c r="H76">
-        <v>164.183333333333</v>
+        <v>186.35</v>
       </c>
       <c r="J76">
-        <v>208.48333333333301</v>
+        <v>186.016666666666</v>
       </c>
       <c r="K76">
-        <v>160.44999999999999</v>
+        <v>181.516666666666</v>
       </c>
       <c r="M76">
-        <v>169.45</v>
+        <v>210.11666666666599</v>
       </c>
       <c r="N76">
-        <v>204.15</v>
+        <v>143.94999999999999</v>
       </c>
       <c r="P76">
-        <v>183.38333333333301</v>
+        <v>210.31666666666601</v>
       </c>
       <c r="Q76">
-        <v>185.683333333333</v>
+        <v>143.016666666666</v>
       </c>
       <c r="S76">
-        <v>176.583333333333</v>
+        <v>170.13333333333301</v>
       </c>
       <c r="T76">
-        <v>193.083333333333</v>
+        <v>196.46666666666599</v>
       </c>
       <c r="V76">
-        <v>195.7</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="W76">
-        <v>176.3</v>
+        <v>211.13333333333301</v>
       </c>
       <c r="Y76">
-        <v>185.683333333333</v>
+        <v>182.36666666666599</v>
       </c>
       <c r="Z76">
-        <v>184.25</v>
+        <v>184.3</v>
       </c>
       <c r="AB76">
-        <v>208.23333333333301</v>
+        <v>193.766666666666</v>
       </c>
       <c r="AC76">
-        <v>158.96666666666599</v>
+        <v>173.3</v>
       </c>
     </row>
     <row r="77" spans="1:29">
       <c r="A77">
-        <v>168</v>
+        <v>182.433333333333</v>
       </c>
       <c r="B77">
-        <v>209.333333333333</v>
+        <v>189.96666666666599</v>
       </c>
       <c r="D77">
-        <v>195.25</v>
+        <v>202.666666666666</v>
       </c>
       <c r="E77">
-        <v>183.48333333333301</v>
+        <v>169.13333333333301</v>
       </c>
       <c r="G77">
-        <v>206.65</v>
+        <v>181.71666666666599</v>
       </c>
       <c r="H77">
-        <v>170.35</v>
+        <v>190.35</v>
       </c>
       <c r="J77">
-        <v>208.183333333333</v>
+        <v>188.1</v>
       </c>
       <c r="K77">
-        <v>167.416666666666</v>
+        <v>182.1</v>
       </c>
       <c r="M77">
-        <v>174.433333333333</v>
+        <v>208.36666666666599</v>
       </c>
       <c r="N77">
-        <v>203.23333333333301</v>
+        <v>150.833333333333</v>
       </c>
       <c r="P77">
-        <v>187.3</v>
+        <v>207.73333333333301</v>
       </c>
       <c r="Q77">
-        <v>187.9</v>
+        <v>150.266666666666</v>
       </c>
       <c r="S77">
-        <v>177.6</v>
+        <v>173.683333333333</v>
       </c>
       <c r="T77">
-        <v>197.73333333333301</v>
+        <v>197.25</v>
       </c>
       <c r="V77">
-        <v>199.95</v>
+        <v>155.1</v>
       </c>
       <c r="W77">
-        <v>179.183333333333</v>
+        <v>208.833333333333</v>
       </c>
       <c r="Y77">
-        <v>189.78333333333299</v>
+        <v>187.36666666666599</v>
       </c>
       <c r="Z77">
-        <v>184.48333333333301</v>
+        <v>185.03333333333299</v>
       </c>
       <c r="AB77">
-        <v>207.3</v>
+        <v>194.13333333333301</v>
       </c>
       <c r="AC77">
-        <v>164.9</v>
+        <v>178.933333333333</v>
       </c>
     </row>
     <row r="78" spans="1:29">
       <c r="A78">
-        <v>176.75</v>
+        <v>187.2</v>
       </c>
       <c r="B78">
-        <v>207.25</v>
+        <v>190.06666666666601</v>
       </c>
       <c r="D78">
-        <v>193.71666666666599</v>
+        <v>202.433333333333</v>
       </c>
       <c r="E78">
-        <v>188.75</v>
+        <v>173.3</v>
       </c>
       <c r="G78">
-        <v>205.63333333333301</v>
+        <v>186.3</v>
       </c>
       <c r="H78">
-        <v>177.23333333333301</v>
+        <v>191.9</v>
       </c>
       <c r="J78">
-        <v>206.75</v>
+        <v>191.266666666666</v>
       </c>
       <c r="K78">
-        <v>175.71666666666599</v>
+        <v>183.6</v>
       </c>
       <c r="M78">
-        <v>181.55</v>
+        <v>206.25</v>
       </c>
       <c r="N78">
-        <v>201.71666666666599</v>
+        <v>158.88333333333301</v>
       </c>
       <c r="P78">
-        <v>191.05</v>
+        <v>205.48333333333301</v>
       </c>
       <c r="Q78">
-        <v>192.016666666666</v>
+        <v>158.516666666666</v>
       </c>
       <c r="S78">
-        <v>180.03333333333299</v>
+        <v>177.7</v>
       </c>
       <c r="T78">
-        <v>199.433333333333</v>
+        <v>197.3</v>
       </c>
       <c r="V78">
-        <v>204.03333333333299</v>
+        <v>161.766666666666</v>
       </c>
       <c r="W78">
-        <v>181.5</v>
+        <v>206.5</v>
       </c>
       <c r="Y78">
-        <v>192.61666666666599</v>
+        <v>189.8</v>
       </c>
       <c r="Z78">
-        <v>187.85</v>
+        <v>185.933333333333</v>
       </c>
       <c r="AB78">
-        <v>205.25</v>
+        <v>193.8</v>
       </c>
       <c r="AC78">
-        <v>171.75</v>
+        <v>185.6</v>
       </c>
     </row>
     <row r="79" spans="1:29">
       <c r="A79">
-        <v>184.25</v>
+        <v>190.98333333333301</v>
       </c>
       <c r="B79">
+        <v>191.016666666666</v>
+      </c>
+      <c r="D79">
+        <v>202.166666666666</v>
+      </c>
+      <c r="E79">
+        <v>176.9</v>
+      </c>
+      <c r="G79">
+        <v>190.21666666666599</v>
+      </c>
+      <c r="H79">
+        <v>193.916666666666</v>
+      </c>
+      <c r="J79">
+        <v>193.56666666666601</v>
+      </c>
+      <c r="K79">
+        <v>187.833333333333</v>
+      </c>
+      <c r="M79">
+        <v>204.25</v>
+      </c>
+      <c r="N79">
+        <v>167.75</v>
+      </c>
+      <c r="P79">
+        <v>203.4</v>
+      </c>
+      <c r="Q79">
+        <v>166</v>
+      </c>
+      <c r="S79">
+        <v>181.083333333333</v>
+      </c>
+      <c r="T79">
+        <v>199.11666666666599</v>
+      </c>
+      <c r="V79">
+        <v>171.05</v>
+      </c>
+      <c r="W79">
         <v>204.75</v>
       </c>
-      <c r="D79">
-        <v>195.03333333333299</v>
-      </c>
-      <c r="E79">
-        <v>193.433333333333</v>
-      </c>
-      <c r="G79">
-        <v>203.516666666666</v>
-      </c>
-      <c r="H79">
-        <v>182.48333333333301</v>
-      </c>
-      <c r="J79">
-        <v>204.333333333333</v>
-      </c>
-      <c r="K79">
-        <v>183</v>
-      </c>
-      <c r="M79">
-        <v>187.2</v>
-      </c>
-      <c r="N79">
-        <v>200.333333333333</v>
-      </c>
-      <c r="P79">
-        <v>194.016666666666</v>
-      </c>
-      <c r="Q79">
-        <v>193.25</v>
-      </c>
-      <c r="S79">
-        <v>185.4</v>
-      </c>
-      <c r="T79">
-        <v>200.8</v>
-      </c>
-      <c r="V79">
-        <v>203.4</v>
-      </c>
-      <c r="W79">
-        <v>183.8</v>
-      </c>
       <c r="Y79">
-        <v>195.25</v>
+        <v>193.71666666666599</v>
       </c>
       <c r="Z79">
-        <v>190.61666666666599</v>
+        <v>188.55</v>
       </c>
       <c r="AB79">
-        <v>203.583333333333</v>
+        <v>194.833333333333</v>
       </c>
       <c r="AC79">
-        <v>180.75</v>
+        <v>190.3</v>
       </c>
     </row>
     <row r="80" spans="1:29">
       <c r="A80">
-        <v>193.5</v>
+        <v>195.083333333333</v>
       </c>
       <c r="B80">
-        <v>202.833333333333</v>
+        <v>192.78333333333299</v>
       </c>
       <c r="D80">
-        <v>197.6</v>
+        <v>201.766666666666</v>
       </c>
       <c r="E80">
-        <v>196.86666666666599</v>
+        <v>185.166666666666</v>
       </c>
       <c r="G80">
-        <v>201.75</v>
+        <v>193.333333333333</v>
       </c>
       <c r="H80">
-        <v>190.25</v>
+        <v>195.8</v>
       </c>
       <c r="J80">
-        <v>201.916666666666</v>
+        <v>195.23333333333301</v>
       </c>
       <c r="K80">
-        <v>190.75</v>
+        <v>190.433333333333</v>
       </c>
       <c r="M80">
-        <v>194.166666666666</v>
+        <v>202.5</v>
       </c>
       <c r="N80">
-        <v>199.433333333333</v>
+        <v>177.5</v>
       </c>
       <c r="P80">
-        <v>197.88333333333301</v>
+        <v>202.35</v>
       </c>
       <c r="Q80">
-        <v>195.85</v>
+        <v>177.25</v>
       </c>
       <c r="S80">
-        <v>192.516666666666</v>
+        <v>183.166666666666</v>
       </c>
       <c r="T80">
-        <v>201.15</v>
+        <v>201.9</v>
       </c>
       <c r="V80">
-        <v>200.916666666666</v>
+        <v>178.46666666666599</v>
       </c>
       <c r="W80">
-        <v>187.75</v>
+        <v>202.333333333333</v>
       </c>
       <c r="Y80">
-        <v>197.61666666666599</v>
+        <v>196.8</v>
       </c>
       <c r="Z80">
-        <v>195.31666666666601</v>
+        <v>190</v>
       </c>
       <c r="AB80">
-        <v>201.416666666666</v>
+        <v>194.96666666666599</v>
       </c>
       <c r="AC80">
-        <v>189.25</v>
+        <v>194.9</v>
       </c>
     </row>
     <row r="81" spans="1:29">
       <c r="A81">
+        <v>197.933333333333</v>
+      </c>
+      <c r="B81">
+        <v>194.333333333333</v>
+      </c>
+      <c r="D81">
+        <v>200.083333333333</v>
+      </c>
+      <c r="E81">
+        <v>193.516666666666</v>
+      </c>
+      <c r="G81">
+        <v>195.86666666666599</v>
+      </c>
+      <c r="H81">
+        <v>197.53333333333299</v>
+      </c>
+      <c r="J81">
+        <v>197.7</v>
+      </c>
+      <c r="K81">
+        <v>193.833333333333</v>
+      </c>
+      <c r="M81">
+        <v>200.666666666666</v>
+      </c>
+      <c r="N81">
+        <v>187</v>
+      </c>
+      <c r="P81">
+        <v>201.35</v>
+      </c>
+      <c r="Q81">
+        <v>189.25</v>
+      </c>
+      <c r="S81">
+        <v>189.9</v>
+      </c>
+      <c r="T81">
+        <v>201.1</v>
+      </c>
+      <c r="V81">
+        <v>187.88333333333301</v>
+      </c>
+      <c r="W81">
+        <v>200.583333333333</v>
+      </c>
+      <c r="Y81">
+        <v>198.4</v>
+      </c>
+      <c r="Z81">
+        <v>195</v>
+      </c>
+      <c r="AB81">
+        <v>196.36666666666599</v>
+      </c>
+      <c r="AC81">
+        <v>197.36666666666599</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
+      <c r="A82">
         <v>200</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>200</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>200</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <v>200</v>
       </c>
-      <c r="G81">
+      <c r="G82">
         <v>200</v>
       </c>
-      <c r="H81">
+      <c r="H82">
         <v>200</v>
       </c>
-      <c r="J81">
+      <c r="J82">
         <v>200</v>
       </c>
-      <c r="K81">
+      <c r="K82">
         <v>200</v>
       </c>
-      <c r="M81">
+      <c r="M82">
         <v>200</v>
       </c>
-      <c r="N81">
+      <c r="N82">
         <v>200</v>
       </c>
-      <c r="P81">
+      <c r="P82">
         <v>200</v>
       </c>
-      <c r="Q81">
+      <c r="Q82">
         <v>200</v>
       </c>
-      <c r="S81">
+      <c r="S82">
         <v>200</v>
       </c>
-      <c r="T81">
+      <c r="T82">
         <v>200</v>
       </c>
-      <c r="V81">
+      <c r="V82">
         <v>200</v>
       </c>
-      <c r="W81">
+      <c r="W82">
         <v>200</v>
       </c>
-      <c r="Y81">
+      <c r="Y82">
         <v>200</v>
       </c>
-      <c r="Z81">
+      <c r="Z82">
         <v>200</v>
       </c>
-      <c r="AB81">
+      <c r="AB82">
         <v>200</v>
       </c>
-      <c r="AC81">
+      <c r="AC82">
         <v>200</v>
       </c>
     </row>
